--- a/數據整理/業績總表/2021_小顧_clean.xlsx
+++ b/數據整理/業績總表/2021_小顧_clean.xlsx
@@ -1264,21 +1264,21 @@
     <t>9</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
@@ -1423,12 +1423,12 @@
     <t>LR-MICRO-PUNCHCORE-8064-SS1-PU</t>
   </si>
   <si>
+    <t>PSR29138-C-壓合後-外觀</t>
+  </si>
+  <si>
     <t>NANO500(PP)-壓合後-外觀</t>
   </si>
   <si>
-    <t>PSR29138-C-壓合後-外觀</t>
-  </si>
-  <si>
     <t>PSR28875-(8064)-PUN壓合前-包裝</t>
   </si>
   <si>
@@ -1615,12 +1615,12 @@
     <t>RR2343-000</t>
   </si>
   <si>
+    <t>RS4050-000</t>
+  </si>
+  <si>
     <t>RS3909-000</t>
   </si>
   <si>
-    <t>RS4050-000</t>
-  </si>
-  <si>
     <t>RR2346-000</t>
   </si>
   <si>
@@ -1978,15 +1978,18 @@
     <t>WIN1930539-1</t>
   </si>
   <si>
+    <t>WIN1930629-2</t>
+  </si>
+  <si>
     <t>WIN1930539-2</t>
   </si>
   <si>
-    <t>WIN1930629-2</t>
-  </si>
-  <si>
     <t>WIN1930539-3</t>
   </si>
   <si>
+    <t>WIN1930629-1</t>
+  </si>
+  <si>
     <t>WIN1930541-3</t>
   </si>
   <si>
@@ -1996,9 +1999,6 @@
     <t>WIN1930541-2</t>
   </si>
   <si>
-    <t>WIN1930629-1</t>
-  </si>
-  <si>
     <t>WIN1930542-1</t>
   </si>
   <si>
@@ -2278,12 +2278,12 @@
     <t>WIN1970567-1</t>
   </si>
   <si>
+    <t>WIN1970761-2</t>
+  </si>
+  <si>
     <t>WIN1990093-3</t>
   </si>
   <si>
-    <t>WIN1970761-2</t>
-  </si>
-  <si>
     <t>WIN1970780-1</t>
   </si>
   <si>
@@ -2350,28 +2350,31 @@
     <t>WIN1980128-1</t>
   </si>
   <si>
+    <t>WIN1990329-1</t>
+  </si>
+  <si>
     <t>WIN2040043-2</t>
   </si>
   <si>
-    <t>WIN1990329-1</t>
-  </si>
-  <si>
     <t>WIN1980220-1</t>
   </si>
   <si>
+    <t>WIN1990527-4</t>
+  </si>
+  <si>
     <t>WIN1990183-2</t>
   </si>
   <si>
     <t>WIN1990150-1</t>
   </si>
   <si>
+    <t>WIN1990320-3</t>
+  </si>
+  <si>
     <t>WIN1990681-5</t>
   </si>
   <si>
-    <t>WIN1990527-4</t>
-  </si>
-  <si>
-    <t>WIN1990320-3</t>
+    <t>WIN1980730-7</t>
   </si>
   <si>
     <t>WIN1990115-8</t>
@@ -2392,9 +2395,6 @@
     <t>WIN1980411-6</t>
   </si>
   <si>
-    <t>WIN1980730-7</t>
-  </si>
-  <si>
     <t>WIN1980732-1</t>
   </si>
   <si>
@@ -2404,15 +2404,15 @@
     <t>WIN1990118-3</t>
   </si>
   <si>
+    <t>WIN19A0125-3</t>
+  </si>
+  <si>
     <t>WIN1990517-1</t>
   </si>
   <si>
     <t>WIN19A0254-2</t>
   </si>
   <si>
-    <t>WIN19A0125-3</t>
-  </si>
-  <si>
     <t>WIN19A0440-1</t>
   </si>
   <si>
@@ -2431,12 +2431,12 @@
     <t>WIN1970837-3</t>
   </si>
   <si>
+    <t>WIN1980047-1</t>
+  </si>
+  <si>
     <t>WIN1980221-3</t>
   </si>
   <si>
-    <t>WIN1980047-1</t>
-  </si>
-  <si>
     <t>WIN1980185-2</t>
   </si>
   <si>
@@ -2452,16 +2452,19 @@
     <t>WIN1980626-1</t>
   </si>
   <si>
+    <t>WIN1990227-3</t>
+  </si>
+  <si>
+    <t>WIN1990337-4</t>
+  </si>
+  <si>
     <t>WIN1990103-1</t>
   </si>
   <si>
     <t>WIN1990399-2</t>
   </si>
   <si>
-    <t>WIN1990227-3</t>
-  </si>
-  <si>
-    <t>WIN1990337-4</t>
+    <t>WIN1990079-3</t>
   </si>
   <si>
     <t>WIN1980330-1</t>
@@ -2470,9 +2473,6 @@
     <t>WIN1980330-2</t>
   </si>
   <si>
-    <t>WIN1990079-3</t>
-  </si>
-  <si>
     <t>WIN1980351-1</t>
   </si>
   <si>
@@ -2554,12 +2554,12 @@
     <t>WIN1990682-1</t>
   </si>
   <si>
+    <t>WIN2040045-1</t>
+  </si>
+  <si>
     <t>WIN2040585-2</t>
   </si>
   <si>
-    <t>WIN2040045-1</t>
-  </si>
-  <si>
     <t>WIN19A0114-1</t>
   </si>
   <si>
@@ -2722,27 +2722,27 @@
     <t>WIN2030477-2</t>
   </si>
   <si>
+    <t>WIN2050154-4</t>
+  </si>
+  <si>
+    <t>WIN2040047-1</t>
+  </si>
+  <si>
+    <t>WIN2040047-2</t>
+  </si>
+  <si>
     <t>WIN2050154-3</t>
   </si>
   <si>
-    <t>WIN2050154-4</t>
-  </si>
-  <si>
-    <t>WIN2040047-1</t>
-  </si>
-  <si>
-    <t>WIN2040047-2</t>
-  </si>
-  <si>
     <t>WIN2040044-1</t>
   </si>
   <si>
+    <t>WIN2010348-1</t>
+  </si>
+  <si>
     <t>WIN2010348-2</t>
   </si>
   <si>
-    <t>WIN2010348-1</t>
-  </si>
-  <si>
     <t>WIN2010351-1</t>
   </si>
   <si>
@@ -2764,18 +2764,18 @@
     <t>WIN2010349-2</t>
   </si>
   <si>
+    <t>WIN2040271-1</t>
+  </si>
+  <si>
+    <t>WIN2030528-2</t>
+  </si>
+  <si>
     <t>WIN2050230-4</t>
   </si>
   <si>
     <t>WIN2040049-3</t>
   </si>
   <si>
-    <t>WIN2040271-1</t>
-  </si>
-  <si>
-    <t>WIN2030528-2</t>
-  </si>
-  <si>
     <t>WIN2020376-1</t>
   </si>
   <si>
@@ -2791,6 +2791,12 @@
     <t>WIN2010356-5</t>
   </si>
   <si>
+    <t>WIN2070070-8</t>
+  </si>
+  <si>
+    <t>WIN2050234-1</t>
+  </si>
+  <si>
     <t>WIN2050481-4</t>
   </si>
   <si>
@@ -2800,12 +2806,6 @@
     <t>WIN2050617-3</t>
   </si>
   <si>
-    <t>WIN2070070-8</t>
-  </si>
-  <si>
-    <t>WIN2050234-1</t>
-  </si>
-  <si>
     <t>WIN2060723-7</t>
   </si>
   <si>
@@ -2899,6 +2899,9 @@
     <t>WIN2040484-1</t>
   </si>
   <si>
+    <t>WIN2050722-4</t>
+  </si>
+  <si>
     <t>WIN2050482-2</t>
   </si>
   <si>
@@ -2908,9 +2911,6 @@
     <t>WIN2050208-1</t>
   </si>
   <si>
-    <t>WIN2050722-4</t>
-  </si>
-  <si>
     <t>WIN2050146-2</t>
   </si>
   <si>
@@ -2926,15 +2926,15 @@
     <t>WIN2050677-1</t>
   </si>
   <si>
+    <t>WIN2060720-3</t>
+  </si>
+  <si>
     <t>WIN2050147-1</t>
   </si>
   <si>
     <t>WIN2060248-2</t>
   </si>
   <si>
-    <t>WIN2060720-3</t>
-  </si>
-  <si>
     <t>WIN2060049-1</t>
   </si>
   <si>
@@ -3094,33 +3094,33 @@
     <t>WIN2070594-1</t>
   </si>
   <si>
+    <t>WIN2080050-1</t>
+  </si>
+  <si>
+    <t>WIN2080779-9</t>
+  </si>
+  <si>
+    <t>WIN2080324-7</t>
+  </si>
+  <si>
+    <t>WIN2080747-8</t>
+  </si>
+  <si>
+    <t>WIN2080067-2</t>
+  </si>
+  <si>
+    <t>WIN2080199-3</t>
+  </si>
+  <si>
+    <t>WIN2080200-4</t>
+  </si>
+  <si>
+    <t>WIN2080233-5</t>
+  </si>
+  <si>
     <t>WIN2080325-6</t>
   </si>
   <si>
-    <t>WIN2080779-9</t>
-  </si>
-  <si>
-    <t>WIN2080324-7</t>
-  </si>
-  <si>
-    <t>WIN2080747-8</t>
-  </si>
-  <si>
-    <t>WIN2080200-4</t>
-  </si>
-  <si>
-    <t>WIN2080233-5</t>
-  </si>
-  <si>
-    <t>WIN2080050-1</t>
-  </si>
-  <si>
-    <t>WIN2080067-2</t>
-  </si>
-  <si>
-    <t>WIN2080199-3</t>
-  </si>
-  <si>
     <t>WIN2070872-1</t>
   </si>
   <si>
@@ -3166,45 +3166,48 @@
     <t>WIN2090074-1</t>
   </si>
   <si>
+    <t>WIN2090176-2</t>
+  </si>
+  <si>
+    <t>WIN2090372-3</t>
+  </si>
+  <si>
     <t>WIN2090176-4</t>
   </si>
   <si>
     <t>WIN2090176-5</t>
   </si>
   <si>
-    <t>WIN2090176-2</t>
-  </si>
-  <si>
-    <t>WIN2090372-3</t>
-  </si>
-  <si>
     <t>WIN20A0107-6</t>
   </si>
   <si>
     <t>WIN2090373-1</t>
   </si>
   <si>
+    <t>WIN2090736-5</t>
+  </si>
+  <si>
+    <t>WIN2090560-3</t>
+  </si>
+  <si>
+    <t>WIN2090930-7</t>
+  </si>
+  <si>
     <t>WIN2090669-4</t>
   </si>
   <si>
     <t>WIN2090373-2</t>
   </si>
   <si>
-    <t>WIN2090736-5</t>
-  </si>
-  <si>
-    <t>WIN2090560-3</t>
-  </si>
-  <si>
-    <t>WIN2090930-7</t>
-  </si>
-  <si>
     <t>WIN2090877-6</t>
   </si>
   <si>
     <t>WIN2080749-1</t>
   </si>
   <si>
+    <t>WIN2090735-8</t>
+  </si>
+  <si>
     <t>WIN2080780-2</t>
   </si>
   <si>
@@ -3223,9 +3226,6 @@
     <t>WIN2090509-6</t>
   </si>
   <si>
-    <t>WIN2090735-8</t>
-  </si>
-  <si>
     <t>WIN2080580-1</t>
   </si>
   <si>
@@ -3289,12 +3289,12 @@
     <t>WIN2090535-1</t>
   </si>
   <si>
+    <t>WIN2090050-1</t>
+  </si>
+  <si>
     <t>WIN2090050-2</t>
   </si>
   <si>
-    <t>WIN2090050-1</t>
-  </si>
-  <si>
     <t>WIN2080683-1</t>
   </si>
   <si>
@@ -3304,48 +3304,48 @@
     <t>WIN2090061-1</t>
   </si>
   <si>
+    <t>WIN2090959-2</t>
+  </si>
+  <si>
+    <t>WIN20A0190-3</t>
+  </si>
+  <si>
     <t>WIN2090878-1</t>
   </si>
   <si>
-    <t>WIN2090959-2</t>
-  </si>
-  <si>
-    <t>WIN20A0190-3</t>
+    <t>WIN20C0132-2</t>
+  </si>
+  <si>
+    <t>WIN20A0806-12</t>
+  </si>
+  <si>
+    <t>WIN20B0074-1</t>
+  </si>
+  <si>
+    <t>WIN20A0190-4</t>
+  </si>
+  <si>
+    <t>WIN20A0391-5</t>
+  </si>
+  <si>
+    <t>WIN20A0398-6</t>
+  </si>
+  <si>
+    <t>WIN20A0398-7</t>
+  </si>
+  <si>
+    <t>WIN20A0443-8</t>
+  </si>
+  <si>
+    <t>WIN20A0443-9</t>
+  </si>
+  <si>
+    <t>WIN20A0679-3</t>
   </si>
   <si>
     <t>WIN20A0757-11</t>
   </si>
   <si>
-    <t>WIN20C0132-2</t>
-  </si>
-  <si>
-    <t>WIN20A0806-12</t>
-  </si>
-  <si>
-    <t>WIN20B0074-1</t>
-  </si>
-  <si>
-    <t>WIN20A0190-4</t>
-  </si>
-  <si>
-    <t>WIN20A0391-5</t>
-  </si>
-  <si>
-    <t>WIN20A0398-6</t>
-  </si>
-  <si>
-    <t>WIN20A0398-7</t>
-  </si>
-  <si>
-    <t>WIN20A0443-8</t>
-  </si>
-  <si>
-    <t>WIN20A0443-9</t>
-  </si>
-  <si>
-    <t>WIN20A0679-3</t>
-  </si>
-  <si>
     <t>WIN2091023-1</t>
   </si>
   <si>
@@ -3379,12 +3379,12 @@
     <t>WIN20A0679-1</t>
   </si>
   <si>
+    <t>WIN20A0650-1</t>
+  </si>
+  <si>
     <t>WIN20B0074-5</t>
   </si>
   <si>
-    <t>WIN20A0650-1</t>
-  </si>
-  <si>
     <t>WIN20C0132-3</t>
   </si>
   <si>
@@ -3421,12 +3421,12 @@
     <t>WIN2090856-1</t>
   </si>
   <si>
+    <t>WIN2090603-1</t>
+  </si>
+  <si>
     <t>WIN2090629-2</t>
   </si>
   <si>
-    <t>WIN2090603-1</t>
-  </si>
-  <si>
     <t>WIN2090534-1</t>
   </si>
   <si>
@@ -3436,6 +3436,24 @@
     <t>WIN20B0074-2</t>
   </si>
   <si>
+    <t>WIN20A0679-2</t>
+  </si>
+  <si>
+    <t>WIN20B0089-4</t>
+  </si>
+  <si>
+    <t>WIN20B0176-8</t>
+  </si>
+  <si>
+    <t>WIN20B0277-2</t>
+  </si>
+  <si>
+    <t>WIN20B0074-3</t>
+  </si>
+  <si>
+    <t>WIN20B0176-6</t>
+  </si>
+  <si>
     <t>WIN20B0089-7</t>
   </si>
   <si>
@@ -3448,27 +3466,12 @@
     <t>WIN20C0132-7</t>
   </si>
   <si>
-    <t>WIN20A0679-2</t>
-  </si>
-  <si>
-    <t>WIN20B0089-4</t>
-  </si>
-  <si>
-    <t>WIN20B0176-8</t>
-  </si>
-  <si>
-    <t>WIN20B0277-2</t>
-  </si>
-  <si>
-    <t>WIN20B0074-3</t>
-  </si>
-  <si>
-    <t>WIN20B0176-6</t>
-  </si>
-  <si>
     <t>WIN20A0826-1</t>
   </si>
   <si>
+    <t>WIN20B0277-1</t>
+  </si>
+  <si>
     <t>WIN20C0132-4</t>
   </si>
   <si>
@@ -3481,9 +3484,6 @@
     <t>WIN20B0074-4</t>
   </si>
   <si>
-    <t>WIN20B0277-1</t>
-  </si>
-  <si>
     <t>WIN2090628-1</t>
   </si>
   <si>
@@ -3526,34 +3526,34 @@
     <t>WIN20C0132-5</t>
   </si>
   <si>
+    <t>WIN20A0112-1</t>
+  </si>
+  <si>
+    <t>WIN20A0112-2</t>
+  </si>
+  <si>
+    <t>WIN20A0112-3</t>
+  </si>
+  <si>
+    <t>WIN20A0112-4</t>
+  </si>
+  <si>
+    <t>WIN20A0112-5</t>
+  </si>
+  <si>
+    <t>WIN20A0112-6</t>
+  </si>
+  <si>
+    <t>WIN20A0882-7</t>
+  </si>
+  <si>
+    <t>WIN20B0852-2</t>
+  </si>
+  <si>
     <t>WIN20C0226-4</t>
   </si>
   <si>
     <t>WIN20C0132-6</t>
-  </si>
-  <si>
-    <t>WIN20A0112-1</t>
-  </si>
-  <si>
-    <t>WIN20A0112-2</t>
-  </si>
-  <si>
-    <t>WIN20A0112-3</t>
-  </si>
-  <si>
-    <t>WIN20A0112-4</t>
-  </si>
-  <si>
-    <t>WIN20A0112-5</t>
-  </si>
-  <si>
-    <t>WIN20A0112-6</t>
-  </si>
-  <si>
-    <t>WIN20A0882-7</t>
-  </si>
-  <si>
-    <t>WIN20B0852-2</t>
   </si>
   <si>
     <t>WIN20A0651-1</t>
@@ -4259,7 +4259,7 @@
         <v>409</v>
       </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I4" s="2">
         <v>43448</v>
@@ -4330,7 +4330,7 @@
         <v>410</v>
       </c>
       <c r="H5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I5" s="2">
         <v>43448</v>
@@ -9939,7 +9939,7 @@
         <v>91</v>
       </c>
       <c r="G87" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H87" t="s">
         <v>425</v>
@@ -9948,7 +9948,7 @@
         <v>43546</v>
       </c>
       <c r="J87" s="2">
-        <v>43546</v>
+        <v>43552</v>
       </c>
       <c r="M87" s="2">
         <v>43552</v>
@@ -9972,28 +9972,28 @@
         <v>502</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V87">
         <v>0</v>
       </c>
       <c r="W87">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="X87">
         <v>4.3701</v>
       </c>
       <c r="Y87">
-        <v>13110.3</v>
+        <v>16169.37</v>
       </c>
       <c r="Z87" t="s">
         <v>533</v>
       </c>
       <c r="AA87" s="2">
-        <v>43546</v>
+        <v>43552</v>
       </c>
       <c r="AB87" t="s">
         <v>568</v>
@@ -10010,7 +10010,7 @@
         <v>91</v>
       </c>
       <c r="G88" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H88" t="s">
         <v>425</v>
@@ -10019,7 +10019,7 @@
         <v>43546</v>
       </c>
       <c r="J88" s="2">
-        <v>43552</v>
+        <v>43546</v>
       </c>
       <c r="M88" s="2">
         <v>43552</v>
@@ -10043,28 +10043,28 @@
         <v>502</v>
       </c>
       <c r="T88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V88">
         <v>0</v>
       </c>
       <c r="W88">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="X88">
         <v>4.3701</v>
       </c>
       <c r="Y88">
-        <v>16169.37</v>
+        <v>13110.3</v>
       </c>
       <c r="Z88" t="s">
         <v>534</v>
       </c>
       <c r="AA88" s="2">
-        <v>43552</v>
+        <v>43546</v>
       </c>
       <c r="AB88" t="s">
         <v>568</v>
@@ -10149,7 +10149,7 @@
         <v>93</v>
       </c>
       <c r="G90" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H90" t="s">
         <v>425</v>
@@ -10158,7 +10158,7 @@
         <v>43546</v>
       </c>
       <c r="J90" s="2">
-        <v>43546</v>
+        <v>43552</v>
       </c>
       <c r="M90" s="2">
         <v>43552</v>
@@ -10176,16 +10176,16 @@
         <v>435</v>
       </c>
       <c r="R90" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="S90" t="s">
         <v>502</v>
       </c>
       <c r="T90">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="U90">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y90">
-        <v>7298.067</v>
+        <v>36490.335</v>
       </c>
       <c r="Z90" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AA90" s="2">
-        <v>43546</v>
+        <v>43552</v>
       </c>
       <c r="AB90" t="s">
         <v>568</v>
@@ -10220,7 +10220,7 @@
         <v>93</v>
       </c>
       <c r="G91" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H91" t="s">
         <v>425</v>
@@ -10247,16 +10247,16 @@
         <v>435</v>
       </c>
       <c r="R91" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="S91" t="s">
         <v>502</v>
       </c>
       <c r="T91">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="U91">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>4.3701</v>
       </c>
       <c r="Y91">
-        <v>58384.536</v>
+        <v>7298.067</v>
       </c>
       <c r="Z91" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AA91" s="2">
         <v>43546</v>
@@ -10291,7 +10291,7 @@
         <v>93</v>
       </c>
       <c r="G92" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H92" t="s">
         <v>425</v>
@@ -10318,16 +10318,16 @@
         <v>435</v>
       </c>
       <c r="R92" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="S92" t="s">
         <v>502</v>
       </c>
       <c r="T92">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="U92">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -10339,10 +10339,10 @@
         <v>4.3701</v>
       </c>
       <c r="Y92">
-        <v>43788.402</v>
+        <v>58384.536</v>
       </c>
       <c r="Z92" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AA92" s="2">
         <v>43546</v>
@@ -10362,7 +10362,7 @@
         <v>93</v>
       </c>
       <c r="G93" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H93" t="s">
         <v>425</v>
@@ -10371,7 +10371,7 @@
         <v>43546</v>
       </c>
       <c r="J93" s="2">
-        <v>43552</v>
+        <v>43546</v>
       </c>
       <c r="M93" s="2">
         <v>43552</v>
@@ -10389,16 +10389,16 @@
         <v>435</v>
       </c>
       <c r="R93" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="S93" t="s">
         <v>502</v>
       </c>
       <c r="T93">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="U93">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -10410,13 +10410,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y93">
-        <v>36490.335</v>
+        <v>43788.402</v>
       </c>
       <c r="Z93" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AA93" s="2">
-        <v>43552</v>
+        <v>43546</v>
       </c>
       <c r="AB93" t="s">
         <v>568</v>
@@ -11341,7 +11341,7 @@
         <v>435</v>
       </c>
       <c r="R107" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S107" t="s">
         <v>502</v>
@@ -11613,7 +11613,7 @@
         <v>435</v>
       </c>
       <c r="R111" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S111" t="s">
         <v>502</v>
@@ -11637,7 +11637,7 @@
         <v>16169.37</v>
       </c>
       <c r="Z111" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA111" s="2">
         <v>43578</v>
@@ -11681,7 +11681,7 @@
         <v>435</v>
       </c>
       <c r="R112" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S112" t="s">
         <v>502</v>
@@ -11705,7 +11705,7 @@
         <v>24803.81358</v>
       </c>
       <c r="Z112" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA112" s="2">
         <v>43578</v>
@@ -11749,7 +11749,7 @@
         <v>435</v>
       </c>
       <c r="R113" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S113" t="s">
         <v>502</v>
@@ -11773,7 +11773,7 @@
         <v>15102.19158</v>
       </c>
       <c r="Z113" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA113" s="2">
         <v>43578</v>
@@ -13319,7 +13319,7 @@
         <v>435</v>
       </c>
       <c r="R136" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S136" t="s">
         <v>502</v>
@@ -13455,7 +13455,7 @@
         <v>435</v>
       </c>
       <c r="R138" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S138" t="s">
         <v>502</v>
@@ -13479,7 +13479,7 @@
         <v>75446.28042</v>
       </c>
       <c r="Z138" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA138" s="2">
         <v>43606</v>
@@ -14280,7 +14280,7 @@
         <v>435</v>
       </c>
       <c r="R150" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S150" t="s">
         <v>502</v>
@@ -14304,7 +14304,7 @@
         <v>7636.74975</v>
       </c>
       <c r="Z150" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA150" s="2">
         <v>43619</v>
@@ -14351,7 +14351,7 @@
         <v>435</v>
       </c>
       <c r="R151" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S151" t="s">
         <v>502</v>
@@ -14375,7 +14375,7 @@
         <v>8634.443579999999</v>
       </c>
       <c r="Z151" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA151" s="2">
         <v>43619</v>
@@ -14422,7 +14422,7 @@
         <v>435</v>
       </c>
       <c r="R152" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S152" t="s">
         <v>502</v>
@@ -14446,7 +14446,7 @@
         <v>14002.67442</v>
       </c>
       <c r="Z152" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA152" s="2">
         <v>43619</v>
@@ -15596,7 +15596,7 @@
         <v>435</v>
       </c>
       <c r="R169" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S169" t="s">
         <v>502</v>
@@ -15620,7 +15620,7 @@
         <v>16387.875</v>
       </c>
       <c r="Z169" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA169" s="2">
         <v>43634</v>
@@ -15664,7 +15664,7 @@
         <v>435</v>
       </c>
       <c r="R170" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="S170" t="s">
         <v>502</v>
@@ -16575,7 +16575,7 @@
         <v>435</v>
       </c>
       <c r="R183" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S183" t="s">
         <v>502</v>
@@ -16599,7 +16599,7 @@
         <v>74379.102</v>
       </c>
       <c r="Z183" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA183" s="2">
         <v>43644</v>
@@ -16820,13 +16820,13 @@
     </row>
     <row r="187" spans="5:29">
       <c r="E187" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F187" t="s">
         <v>149</v>
       </c>
       <c r="G187" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H187" t="s">
         <v>428</v>
@@ -16835,7 +16835,7 @@
         <v>43640</v>
       </c>
       <c r="J187" s="2">
-        <v>43692</v>
+        <v>43672</v>
       </c>
       <c r="M187" s="2">
         <v>43692</v>
@@ -16859,10 +16859,10 @@
         <v>502</v>
       </c>
       <c r="T187">
-        <v>44000</v>
+        <v>16000</v>
       </c>
       <c r="U187">
-        <v>44000</v>
+        <v>16000</v>
       </c>
       <c r="V187">
         <v>0</v>
@@ -16874,13 +16874,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y187">
-        <v>103872.03288</v>
+        <v>37771.64832</v>
       </c>
       <c r="Z187" t="s">
         <v>503</v>
       </c>
       <c r="AA187" s="2">
-        <v>43692</v>
+        <v>43672</v>
       </c>
       <c r="AB187" t="s">
         <v>568</v>
@@ -16891,13 +16891,13 @@
     </row>
     <row r="188" spans="5:29">
       <c r="E188" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
         <v>149</v>
       </c>
       <c r="G188" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H188" t="s">
         <v>428</v>
@@ -16906,7 +16906,7 @@
         <v>43640</v>
       </c>
       <c r="J188" s="2">
-        <v>43672</v>
+        <v>43692</v>
       </c>
       <c r="M188" s="2">
         <v>43692</v>
@@ -16930,10 +16930,10 @@
         <v>502</v>
       </c>
       <c r="T188">
-        <v>16000</v>
+        <v>44000</v>
       </c>
       <c r="U188">
-        <v>16000</v>
+        <v>44000</v>
       </c>
       <c r="V188">
         <v>0</v>
@@ -16945,13 +16945,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y188">
-        <v>37771.64832</v>
+        <v>103872.03288</v>
       </c>
       <c r="Z188" t="s">
         <v>503</v>
       </c>
       <c r="AA188" s="2">
-        <v>43672</v>
+        <v>43692</v>
       </c>
       <c r="AB188" t="s">
         <v>568</v>
@@ -18476,13 +18476,13 @@
     </row>
     <row r="211" spans="5:29">
       <c r="E211" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F211" t="s">
         <v>169</v>
       </c>
       <c r="G211" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H211" t="s">
         <v>422</v>
@@ -18491,7 +18491,7 @@
         <v>43665</v>
       </c>
       <c r="J211" s="2">
-        <v>43923</v>
+        <v>43720</v>
       </c>
       <c r="M211" s="2">
         <v>43920</v>
@@ -18515,10 +18515,10 @@
         <v>502</v>
       </c>
       <c r="T211">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="U211">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="V211">
         <v>0</v>
@@ -18530,13 +18530,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y211">
-        <v>9442.91208</v>
+        <v>37771.64832</v>
       </c>
       <c r="Z211" t="s">
         <v>504</v>
       </c>
       <c r="AA211" s="2">
-        <v>43923</v>
+        <v>43720</v>
       </c>
       <c r="AB211" t="s">
         <v>568</v>
@@ -18547,13 +18547,13 @@
     </row>
     <row r="212" spans="5:29">
       <c r="E212" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F212" t="s">
         <v>169</v>
       </c>
       <c r="G212" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H212" t="s">
         <v>422</v>
@@ -18562,7 +18562,7 @@
         <v>43665</v>
       </c>
       <c r="J212" s="2">
-        <v>43720</v>
+        <v>43923</v>
       </c>
       <c r="M212" s="2">
         <v>43920</v>
@@ -18586,10 +18586,10 @@
         <v>502</v>
       </c>
       <c r="T212">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="U212">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="V212">
         <v>0</v>
@@ -18601,13 +18601,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y212">
-        <v>37771.64832</v>
+        <v>9442.91208</v>
       </c>
       <c r="Z212" t="s">
         <v>504</v>
       </c>
       <c r="AA212" s="2">
-        <v>43720</v>
+        <v>43923</v>
       </c>
       <c r="AB212" t="s">
         <v>568</v>
@@ -18692,7 +18692,7 @@
         <v>171</v>
       </c>
       <c r="G214" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H214" t="s">
         <v>422</v>
@@ -18701,7 +18701,7 @@
         <v>43665</v>
       </c>
       <c r="J214" s="2">
-        <v>43714</v>
+        <v>43728</v>
       </c>
       <c r="M214" s="2">
         <v>43728</v>
@@ -18725,10 +18725,10 @@
         <v>502</v>
       </c>
       <c r="T214">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="U214">
-        <v>12000</v>
+        <v>28000</v>
       </c>
       <c r="V214">
         <v>0</v>
@@ -18740,13 +18740,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y214">
-        <v>28328.73624</v>
+        <v>66100.38456000001</v>
       </c>
       <c r="Z214" t="s">
         <v>503</v>
       </c>
       <c r="AA214" s="2">
-        <v>43714</v>
+        <v>43728</v>
       </c>
       <c r="AB214" t="s">
         <v>568</v>
@@ -18763,7 +18763,7 @@
         <v>171</v>
       </c>
       <c r="G215" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H215" t="s">
         <v>422</v>
@@ -18772,7 +18772,7 @@
         <v>43665</v>
       </c>
       <c r="J215" s="2">
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="M215" s="2">
         <v>43728</v>
@@ -18817,7 +18817,7 @@
         <v>503</v>
       </c>
       <c r="AA215" s="2">
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="AB215" t="s">
         <v>568</v>
@@ -18834,7 +18834,7 @@
         <v>171</v>
       </c>
       <c r="G216" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H216" t="s">
         <v>422</v>
@@ -18843,7 +18843,7 @@
         <v>43665</v>
       </c>
       <c r="J216" s="2">
-        <v>43735</v>
+        <v>43713</v>
       </c>
       <c r="M216" s="2">
         <v>43728</v>
@@ -18867,10 +18867,10 @@
         <v>502</v>
       </c>
       <c r="T216">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="U216">
-        <v>32000</v>
+        <v>12000</v>
       </c>
       <c r="V216">
         <v>0</v>
@@ -18882,13 +18882,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y216">
-        <v>75543.29664</v>
+        <v>28328.73624</v>
       </c>
       <c r="Z216" t="s">
         <v>503</v>
       </c>
       <c r="AA216" s="2">
-        <v>43735</v>
+        <v>43713</v>
       </c>
       <c r="AB216" t="s">
         <v>568</v>
@@ -18905,7 +18905,7 @@
         <v>171</v>
       </c>
       <c r="G217" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H217" t="s">
         <v>422</v>
@@ -18914,7 +18914,7 @@
         <v>43665</v>
       </c>
       <c r="J217" s="2">
-        <v>43728</v>
+        <v>43720</v>
       </c>
       <c r="M217" s="2">
         <v>43728</v>
@@ -18938,10 +18938,10 @@
         <v>502</v>
       </c>
       <c r="T217">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="U217">
-        <v>28000</v>
+        <v>16000</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -18953,13 +18953,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y217">
-        <v>66100.38456000001</v>
+        <v>37771.64832</v>
       </c>
       <c r="Z217" t="s">
         <v>503</v>
       </c>
       <c r="AA217" s="2">
-        <v>43728</v>
+        <v>43720</v>
       </c>
       <c r="AB217" t="s">
         <v>568</v>
@@ -18976,7 +18976,7 @@
         <v>171</v>
       </c>
       <c r="G218" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H218" t="s">
         <v>422</v>
@@ -18985,7 +18985,7 @@
         <v>43665</v>
       </c>
       <c r="J218" s="2">
-        <v>43720</v>
+        <v>43735</v>
       </c>
       <c r="M218" s="2">
         <v>43728</v>
@@ -19009,10 +19009,10 @@
         <v>502</v>
       </c>
       <c r="T218">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="U218">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -19024,13 +19024,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y218">
-        <v>37771.64832</v>
+        <v>75543.29664</v>
       </c>
       <c r="Z218" t="s">
         <v>503</v>
       </c>
       <c r="AA218" s="2">
-        <v>43720</v>
+        <v>43735</v>
       </c>
       <c r="AB218" t="s">
         <v>568</v>
@@ -19041,13 +19041,13 @@
     </row>
     <row r="219" spans="5:29">
       <c r="E219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
         <v>172</v>
       </c>
       <c r="G219" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H219" t="s">
         <v>422</v>
@@ -19056,7 +19056,7 @@
         <v>43671</v>
       </c>
       <c r="J219" s="2">
-        <v>43710</v>
+        <v>43704</v>
       </c>
       <c r="M219" s="2">
         <v>43711</v>
@@ -19080,10 +19080,10 @@
         <v>502</v>
       </c>
       <c r="T219">
-        <v>448</v>
+        <v>600</v>
       </c>
       <c r="U219">
-        <v>448</v>
+        <v>600</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -19095,13 +19095,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y219">
-        <v>606919.488</v>
+        <v>812838.6</v>
       </c>
       <c r="Z219" t="s">
         <v>543</v>
       </c>
       <c r="AA219" s="2">
-        <v>43710</v>
+        <v>43704</v>
       </c>
       <c r="AB219" t="s">
         <v>568</v>
@@ -19112,13 +19112,13 @@
     </row>
     <row r="220" spans="5:29">
       <c r="E220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F220" t="s">
         <v>172</v>
       </c>
       <c r="G220" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H220" t="s">
         <v>422</v>
@@ -19127,7 +19127,7 @@
         <v>43671</v>
       </c>
       <c r="J220" s="2">
-        <v>43686</v>
+        <v>43710</v>
       </c>
       <c r="M220" s="2">
         <v>43711</v>
@@ -19151,10 +19151,10 @@
         <v>502</v>
       </c>
       <c r="T220">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="U220">
-        <v>342</v>
+        <v>448</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -19166,13 +19166,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y220">
-        <v>463318.002</v>
+        <v>606919.488</v>
       </c>
       <c r="Z220" t="s">
         <v>543</v>
       </c>
       <c r="AA220" s="2">
-        <v>43686</v>
+        <v>43710</v>
       </c>
       <c r="AB220" t="s">
         <v>568</v>
@@ -19189,7 +19189,7 @@
         <v>172</v>
       </c>
       <c r="G221" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H221" t="s">
         <v>422</v>
@@ -19198,7 +19198,7 @@
         <v>43671</v>
       </c>
       <c r="J221" s="2">
-        <v>43689</v>
+        <v>43686</v>
       </c>
       <c r="M221" s="2">
         <v>43711</v>
@@ -19222,10 +19222,10 @@
         <v>502</v>
       </c>
       <c r="T221">
-        <v>768</v>
+        <v>342</v>
       </c>
       <c r="U221">
-        <v>768</v>
+        <v>342</v>
       </c>
       <c r="V221">
         <v>0</v>
@@ -19237,13 +19237,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y221">
-        <v>1040433.408</v>
+        <v>463318.002</v>
       </c>
       <c r="Z221" t="s">
         <v>543</v>
       </c>
       <c r="AA221" s="2">
-        <v>43689</v>
+        <v>43686</v>
       </c>
       <c r="AB221" t="s">
         <v>568</v>
@@ -19260,7 +19260,7 @@
         <v>172</v>
       </c>
       <c r="G222" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H222" t="s">
         <v>422</v>
@@ -19269,7 +19269,7 @@
         <v>43671</v>
       </c>
       <c r="J222" s="2">
-        <v>43696</v>
+        <v>43689</v>
       </c>
       <c r="M222" s="2">
         <v>43711</v>
@@ -19293,10 +19293,10 @@
         <v>502</v>
       </c>
       <c r="T222">
-        <v>70</v>
+        <v>768</v>
       </c>
       <c r="U222">
-        <v>70</v>
+        <v>768</v>
       </c>
       <c r="V222">
         <v>0</v>
@@ -19308,13 +19308,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y222">
-        <v>94831.17</v>
+        <v>1040433.408</v>
       </c>
       <c r="Z222" t="s">
         <v>543</v>
       </c>
       <c r="AA222" s="2">
-        <v>43696</v>
+        <v>43689</v>
       </c>
       <c r="AB222" t="s">
         <v>568</v>
@@ -19331,7 +19331,7 @@
         <v>172</v>
       </c>
       <c r="G223" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H223" t="s">
         <v>422</v>
@@ -19340,7 +19340,7 @@
         <v>43671</v>
       </c>
       <c r="J223" s="2">
-        <v>43693</v>
+        <v>43696</v>
       </c>
       <c r="M223" s="2">
         <v>43711</v>
@@ -19364,10 +19364,10 @@
         <v>502</v>
       </c>
       <c r="T223">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="U223">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="V223">
         <v>0</v>
@@ -19379,13 +19379,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y223">
-        <v>40641.93</v>
+        <v>94831.17</v>
       </c>
       <c r="Z223" t="s">
         <v>543</v>
       </c>
       <c r="AA223" s="2">
-        <v>43693</v>
+        <v>43696</v>
       </c>
       <c r="AB223" t="s">
         <v>568</v>
@@ -19402,7 +19402,7 @@
         <v>172</v>
       </c>
       <c r="G224" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H224" t="s">
         <v>422</v>
@@ -19411,7 +19411,7 @@
         <v>43671</v>
       </c>
       <c r="J224" s="2">
-        <v>43696</v>
+        <v>43693</v>
       </c>
       <c r="M224" s="2">
         <v>43711</v>
@@ -19435,10 +19435,10 @@
         <v>502</v>
       </c>
       <c r="T224">
-        <v>1152</v>
+        <v>30</v>
       </c>
       <c r="U224">
-        <v>1152</v>
+        <v>30</v>
       </c>
       <c r="V224">
         <v>0</v>
@@ -19450,13 +19450,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y224">
-        <v>1560650.112</v>
+        <v>40641.93</v>
       </c>
       <c r="Z224" t="s">
         <v>543</v>
       </c>
       <c r="AA224" s="2">
-        <v>43696</v>
+        <v>43693</v>
       </c>
       <c r="AB224" t="s">
         <v>568</v>
@@ -19473,7 +19473,7 @@
         <v>172</v>
       </c>
       <c r="G225" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H225" t="s">
         <v>422</v>
@@ -19482,7 +19482,7 @@
         <v>43671</v>
       </c>
       <c r="J225" s="2">
-        <v>43704</v>
+        <v>43696</v>
       </c>
       <c r="M225" s="2">
         <v>43711</v>
@@ -19506,10 +19506,10 @@
         <v>502</v>
       </c>
       <c r="T225">
-        <v>600</v>
+        <v>1152</v>
       </c>
       <c r="U225">
-        <v>600</v>
+        <v>1152</v>
       </c>
       <c r="V225">
         <v>0</v>
@@ -19521,13 +19521,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y225">
-        <v>812838.6</v>
+        <v>1560650.112</v>
       </c>
       <c r="Z225" t="s">
         <v>543</v>
       </c>
       <c r="AA225" s="2">
-        <v>43704</v>
+        <v>43696</v>
       </c>
       <c r="AB225" t="s">
         <v>568</v>
@@ -19751,13 +19751,13 @@
     </row>
     <row r="229" spans="5:29">
       <c r="E229" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F229" t="s">
         <v>174</v>
       </c>
       <c r="G229" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H229" t="s">
         <v>422</v>
@@ -19766,7 +19766,7 @@
         <v>43671</v>
       </c>
       <c r="J229" s="2">
-        <v>43733</v>
+        <v>43760</v>
       </c>
       <c r="M229" s="2">
         <v>43984</v>
@@ -19790,10 +19790,10 @@
         <v>502</v>
       </c>
       <c r="T229">
-        <v>84</v>
+        <v>461</v>
       </c>
       <c r="U229">
-        <v>84</v>
+        <v>461</v>
       </c>
       <c r="V229">
         <v>0</v>
@@ -19805,13 +19805,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y229">
-        <v>113797.404</v>
+        <v>624530.991</v>
       </c>
       <c r="Z229" t="s">
         <v>543</v>
       </c>
       <c r="AA229" s="2">
-        <v>43733</v>
+        <v>43760</v>
       </c>
       <c r="AB229" t="s">
         <v>568</v>
@@ -19822,13 +19822,13 @@
     </row>
     <row r="230" spans="5:29">
       <c r="E230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F230" t="s">
         <v>174</v>
       </c>
       <c r="G230" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H230" t="s">
         <v>422</v>
@@ -19837,7 +19837,7 @@
         <v>43671</v>
       </c>
       <c r="J230" s="2">
-        <v>43747</v>
+        <v>43733</v>
       </c>
       <c r="M230" s="2">
         <v>43984</v>
@@ -19861,10 +19861,10 @@
         <v>502</v>
       </c>
       <c r="T230">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="U230">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="V230">
         <v>0</v>
@@ -19876,13 +19876,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y230">
-        <v>12192.579</v>
+        <v>113797.404</v>
       </c>
       <c r="Z230" t="s">
         <v>543</v>
       </c>
       <c r="AA230" s="2">
-        <v>43747</v>
+        <v>43733</v>
       </c>
       <c r="AB230" t="s">
         <v>568</v>
@@ -19899,7 +19899,7 @@
         <v>174</v>
       </c>
       <c r="G231" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H231" t="s">
         <v>422</v>
@@ -19908,7 +19908,7 @@
         <v>43671</v>
       </c>
       <c r="J231" s="2">
-        <v>43760</v>
+        <v>43747</v>
       </c>
       <c r="M231" s="2">
         <v>43984</v>
@@ -19932,10 +19932,10 @@
         <v>502</v>
       </c>
       <c r="T231">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="U231">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="V231">
         <v>0</v>
@@ -19947,13 +19947,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y231">
-        <v>624530.991</v>
+        <v>12192.579</v>
       </c>
       <c r="Z231" t="s">
         <v>543</v>
       </c>
       <c r="AA231" s="2">
-        <v>43760</v>
+        <v>43747</v>
       </c>
       <c r="AB231" t="s">
         <v>568</v>
@@ -20381,7 +20381,7 @@
         <v>181</v>
       </c>
       <c r="G238" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H238" t="s">
         <v>422</v>
@@ -20390,7 +20390,7 @@
         <v>43674</v>
       </c>
       <c r="J238" s="2">
-        <v>43686</v>
+        <v>43679</v>
       </c>
       <c r="M238" s="2">
         <v>43683</v>
@@ -20414,10 +20414,10 @@
         <v>502</v>
       </c>
       <c r="T238">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="U238">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="V238">
         <v>0</v>
@@ -20429,13 +20429,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y238">
-        <v>276365.124</v>
+        <v>520216.704</v>
       </c>
       <c r="Z238" t="s">
         <v>543</v>
       </c>
       <c r="AA238" s="2">
-        <v>43686</v>
+        <v>43679</v>
       </c>
       <c r="AB238" t="s">
         <v>568</v>
@@ -20452,7 +20452,7 @@
         <v>181</v>
       </c>
       <c r="G239" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H239" t="s">
         <v>422</v>
@@ -20461,7 +20461,7 @@
         <v>43674</v>
       </c>
       <c r="J239" s="2">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="M239" s="2">
         <v>43683</v>
@@ -20485,10 +20485,10 @@
         <v>502</v>
       </c>
       <c r="T239">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="U239">
-        <v>384</v>
+        <v>204</v>
       </c>
       <c r="V239">
         <v>0</v>
@@ -20500,13 +20500,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y239">
-        <v>520216.704</v>
+        <v>276365.124</v>
       </c>
       <c r="Z239" t="s">
         <v>543</v>
       </c>
       <c r="AA239" s="2">
-        <v>43679</v>
+        <v>43686</v>
       </c>
       <c r="AB239" t="s">
         <v>568</v>
@@ -20828,7 +20828,7 @@
         <v>435</v>
       </c>
       <c r="R244" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S244" t="s">
         <v>502</v>
@@ -20852,7 +20852,7 @@
         <v>46341.41442</v>
       </c>
       <c r="Z244" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA244" s="2">
         <v>43697</v>
@@ -20872,7 +20872,7 @@
         <v>185</v>
       </c>
       <c r="G245" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H245" t="s">
         <v>429</v>
@@ -20881,7 +20881,7 @@
         <v>43685</v>
       </c>
       <c r="J245" s="2">
-        <v>43711</v>
+        <v>43717</v>
       </c>
       <c r="M245" s="2">
         <v>43724</v>
@@ -20905,10 +20905,10 @@
         <v>502</v>
       </c>
       <c r="T245">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="U245">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="V245">
         <v>0</v>
@@ -20920,13 +20920,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y245">
-        <v>40641.93</v>
+        <v>304814.475</v>
       </c>
       <c r="Z245" t="s">
         <v>543</v>
       </c>
       <c r="AA245" s="2">
-        <v>43711</v>
+        <v>43717</v>
       </c>
       <c r="AB245" t="s">
         <v>568</v>
@@ -20943,7 +20943,7 @@
         <v>185</v>
       </c>
       <c r="G246" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H246" t="s">
         <v>429</v>
@@ -20952,7 +20952,7 @@
         <v>43685</v>
       </c>
       <c r="J246" s="2">
-        <v>43724</v>
+        <v>43728</v>
       </c>
       <c r="M246" s="2">
         <v>43724</v>
@@ -20976,10 +20976,10 @@
         <v>502</v>
       </c>
       <c r="T246">
-        <v>566</v>
+        <v>30</v>
       </c>
       <c r="U246">
-        <v>566</v>
+        <v>30</v>
       </c>
       <c r="V246">
         <v>0</v>
@@ -20991,13 +20991,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y246">
-        <v>766777.746</v>
+        <v>40641.93</v>
       </c>
       <c r="Z246" t="s">
         <v>543</v>
       </c>
       <c r="AA246" s="2">
-        <v>43724</v>
+        <v>43728</v>
       </c>
       <c r="AB246" t="s">
         <v>568</v>
@@ -21014,7 +21014,7 @@
         <v>185</v>
       </c>
       <c r="G247" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H247" t="s">
         <v>429</v>
@@ -21023,7 +21023,7 @@
         <v>43685</v>
       </c>
       <c r="J247" s="2">
-        <v>43717</v>
+        <v>43711</v>
       </c>
       <c r="M247" s="2">
         <v>43724</v>
@@ -21047,10 +21047,10 @@
         <v>502</v>
       </c>
       <c r="T247">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="U247">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="V247">
         <v>0</v>
@@ -21062,13 +21062,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y247">
-        <v>304814.475</v>
+        <v>40641.93</v>
       </c>
       <c r="Z247" t="s">
         <v>543</v>
       </c>
       <c r="AA247" s="2">
-        <v>43717</v>
+        <v>43711</v>
       </c>
       <c r="AB247" t="s">
         <v>568</v>
@@ -21085,7 +21085,7 @@
         <v>185</v>
       </c>
       <c r="G248" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H248" t="s">
         <v>429</v>
@@ -21094,7 +21094,7 @@
         <v>43685</v>
       </c>
       <c r="J248" s="2">
-        <v>43728</v>
+        <v>43724</v>
       </c>
       <c r="M248" s="2">
         <v>43724</v>
@@ -21118,10 +21118,10 @@
         <v>502</v>
       </c>
       <c r="T248">
-        <v>30</v>
+        <v>566</v>
       </c>
       <c r="U248">
-        <v>30</v>
+        <v>566</v>
       </c>
       <c r="V248">
         <v>0</v>
@@ -21133,13 +21133,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y248">
-        <v>40641.93</v>
+        <v>766777.746</v>
       </c>
       <c r="Z248" t="s">
         <v>543</v>
       </c>
       <c r="AA248" s="2">
-        <v>43728</v>
+        <v>43724</v>
       </c>
       <c r="AB248" t="s">
         <v>568</v>
@@ -21150,13 +21150,13 @@
     </row>
     <row r="249" spans="5:29">
       <c r="E249" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F249" t="s">
         <v>186</v>
       </c>
       <c r="G249" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H249" t="s">
         <v>429</v>
@@ -21165,7 +21165,7 @@
         <v>43687</v>
       </c>
       <c r="J249" s="2">
-        <v>43689</v>
+        <v>43711</v>
       </c>
       <c r="M249" s="2">
         <v>43710</v>
@@ -21183,34 +21183,34 @@
         <v>435</v>
       </c>
       <c r="R249" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="S249" t="s">
         <v>502</v>
       </c>
       <c r="T249">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="U249">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="V249">
         <v>0</v>
       </c>
       <c r="W249">
-        <v>86</v>
+        <v>740</v>
       </c>
       <c r="X249">
         <v>4.3701</v>
       </c>
       <c r="Y249">
-        <v>37582.86</v>
+        <v>54975.858</v>
       </c>
       <c r="Z249" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="AA249" s="2">
-        <v>43689</v>
+        <v>43711</v>
       </c>
       <c r="AB249" t="s">
         <v>568</v>
@@ -21227,7 +21227,7 @@
         <v>186</v>
       </c>
       <c r="G250" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H250" t="s">
         <v>429</v>
@@ -21254,16 +21254,16 @@
         <v>435</v>
       </c>
       <c r="R250" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="S250" t="s">
         <v>502</v>
       </c>
       <c r="T250">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="U250">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="V250">
         <v>0</v>
@@ -21275,10 +21275,10 @@
         <v>4.3701</v>
       </c>
       <c r="Y250">
-        <v>32697.0882</v>
+        <v>37582.86</v>
       </c>
       <c r="Z250" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="AA250" s="2">
         <v>43689</v>
@@ -21292,13 +21292,13 @@
     </row>
     <row r="251" spans="5:29">
       <c r="E251" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F251" t="s">
         <v>186</v>
       </c>
       <c r="G251" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H251" t="s">
         <v>429</v>
@@ -21307,7 +21307,7 @@
         <v>43687</v>
       </c>
       <c r="J251" s="2">
-        <v>43711</v>
+        <v>43689</v>
       </c>
       <c r="M251" s="2">
         <v>43710</v>
@@ -21325,34 +21325,34 @@
         <v>435</v>
       </c>
       <c r="R251" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="S251" t="s">
         <v>502</v>
       </c>
       <c r="T251">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="U251">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="V251">
         <v>0</v>
       </c>
       <c r="W251">
-        <v>740</v>
+        <v>86</v>
       </c>
       <c r="X251">
         <v>4.3701</v>
       </c>
       <c r="Y251">
-        <v>54975.858</v>
+        <v>32697.0882</v>
       </c>
       <c r="Z251" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="AA251" s="2">
-        <v>43711</v>
+        <v>43689</v>
       </c>
       <c r="AB251" t="s">
         <v>568</v>
@@ -23232,7 +23232,7 @@
         <v>207</v>
       </c>
       <c r="G279" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H279" t="s">
         <v>421</v>
@@ -23241,7 +23241,7 @@
         <v>43733</v>
       </c>
       <c r="J279" s="2">
-        <v>43945</v>
+        <v>43923</v>
       </c>
       <c r="M279" s="2">
         <v>43943</v>
@@ -23265,10 +23265,10 @@
         <v>502</v>
       </c>
       <c r="T279">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="U279">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="V279">
         <v>0</v>
@@ -23280,13 +23280,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y279">
-        <v>9442.91208</v>
+        <v>28328.73624</v>
       </c>
       <c r="Z279" t="s">
         <v>504</v>
       </c>
       <c r="AA279" s="2">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="AB279" t="s">
         <v>568</v>
@@ -23303,7 +23303,7 @@
         <v>207</v>
       </c>
       <c r="G280" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H280" t="s">
         <v>421</v>
@@ -23312,7 +23312,7 @@
         <v>43733</v>
       </c>
       <c r="J280" s="2">
-        <v>43923</v>
+        <v>43945</v>
       </c>
       <c r="M280" s="2">
         <v>43943</v>
@@ -23336,10 +23336,10 @@
         <v>502</v>
       </c>
       <c r="T280">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="U280">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="V280">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y280">
-        <v>28328.73624</v>
+        <v>9442.91208</v>
       </c>
       <c r="Z280" t="s">
         <v>504</v>
       </c>
       <c r="AA280" s="2">
-        <v>43923</v>
+        <v>43943</v>
       </c>
       <c r="AB280" t="s">
         <v>568</v>
@@ -23466,7 +23466,7 @@
         <v>435</v>
       </c>
       <c r="R282" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S282" t="s">
         <v>502</v>
@@ -23490,7 +23490,7 @@
         <v>39873.66642</v>
       </c>
       <c r="Z282" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA282" s="2">
         <v>43747</v>
@@ -23726,7 +23726,7 @@
         <v>408</v>
       </c>
       <c r="H286" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I286" s="2">
         <v>43746</v>
@@ -23797,7 +23797,7 @@
         <v>411</v>
       </c>
       <c r="H287" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I287" s="2">
         <v>43746</v>
@@ -23868,7 +23868,7 @@
         <v>412</v>
       </c>
       <c r="H288" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I288" s="2">
         <v>43746</v>
@@ -23939,7 +23939,7 @@
         <v>408</v>
       </c>
       <c r="H289" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I289" s="2">
         <v>43746</v>
@@ -24010,7 +24010,7 @@
         <v>411</v>
       </c>
       <c r="H290" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I290" s="2">
         <v>43746</v>
@@ -24081,7 +24081,7 @@
         <v>408</v>
       </c>
       <c r="H291" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I291" s="2">
         <v>43750</v>
@@ -24152,7 +24152,7 @@
         <v>408</v>
       </c>
       <c r="H292" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I292" s="2">
         <v>43753</v>
@@ -24223,7 +24223,7 @@
         <v>411</v>
       </c>
       <c r="H293" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I293" s="2">
         <v>43753</v>
@@ -24294,7 +24294,7 @@
         <v>412</v>
       </c>
       <c r="H294" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I294" s="2">
         <v>43753</v>
@@ -24365,7 +24365,7 @@
         <v>408</v>
       </c>
       <c r="H295" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I295" s="2">
         <v>43756</v>
@@ -24436,7 +24436,7 @@
         <v>408</v>
       </c>
       <c r="H296" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I296" s="2">
         <v>43756</v>
@@ -24507,7 +24507,7 @@
         <v>411</v>
       </c>
       <c r="H297" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I297" s="2">
         <v>43756</v>
@@ -24578,7 +24578,7 @@
         <v>412</v>
       </c>
       <c r="H298" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I298" s="2">
         <v>43756</v>
@@ -24649,7 +24649,7 @@
         <v>408</v>
       </c>
       <c r="H299" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I299" s="2">
         <v>43762</v>
@@ -24720,7 +24720,7 @@
         <v>408</v>
       </c>
       <c r="H300" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I300" s="2">
         <v>43762</v>
@@ -24791,7 +24791,7 @@
         <v>408</v>
       </c>
       <c r="H301" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I301" s="2">
         <v>43768</v>
@@ -24862,7 +24862,7 @@
         <v>411</v>
       </c>
       <c r="H302" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I302" s="2">
         <v>43768</v>
@@ -24933,7 +24933,7 @@
         <v>412</v>
       </c>
       <c r="H303" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I303" s="2">
         <v>43768</v>
@@ -25004,7 +25004,7 @@
         <v>408</v>
       </c>
       <c r="H304" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I304" s="2">
         <v>43781</v>
@@ -25075,7 +25075,7 @@
         <v>408</v>
       </c>
       <c r="H305" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I305" s="2">
         <v>43781</v>
@@ -25146,7 +25146,7 @@
         <v>408</v>
       </c>
       <c r="H306" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I306" s="2">
         <v>43781</v>
@@ -25217,7 +25217,7 @@
         <v>408</v>
       </c>
       <c r="H307" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I307" s="2">
         <v>43787</v>
@@ -25288,7 +25288,7 @@
         <v>411</v>
       </c>
       <c r="H308" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I308" s="2">
         <v>43787</v>
@@ -25359,7 +25359,7 @@
         <v>412</v>
       </c>
       <c r="H309" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I309" s="2">
         <v>43787</v>
@@ -25430,7 +25430,7 @@
         <v>408</v>
       </c>
       <c r="H310" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I310" s="2">
         <v>43791</v>
@@ -25498,7 +25498,7 @@
         <v>408</v>
       </c>
       <c r="H311" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I311" s="2">
         <v>43791</v>
@@ -25566,7 +25566,7 @@
         <v>408</v>
       </c>
       <c r="H312" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I312" s="2">
         <v>43791</v>
@@ -25634,7 +25634,7 @@
         <v>408</v>
       </c>
       <c r="H313" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I313" s="2">
         <v>43791</v>
@@ -25702,7 +25702,7 @@
         <v>408</v>
       </c>
       <c r="H314" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I314" s="2">
         <v>43791</v>
@@ -25770,7 +25770,7 @@
         <v>408</v>
       </c>
       <c r="H315" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I315" s="2">
         <v>43791</v>
@@ -25838,7 +25838,7 @@
         <v>408</v>
       </c>
       <c r="H316" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I316" s="2">
         <v>43792</v>
@@ -25906,7 +25906,7 @@
         <v>408</v>
       </c>
       <c r="H317" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I317" s="2">
         <v>43792</v>
@@ -25974,7 +25974,7 @@
         <v>408</v>
       </c>
       <c r="H318" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I318" s="2">
         <v>43792</v>
@@ -26042,7 +26042,7 @@
         <v>408</v>
       </c>
       <c r="H319" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I319" s="2">
         <v>43792</v>
@@ -26110,7 +26110,7 @@
         <v>408</v>
       </c>
       <c r="H320" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I320" s="2">
         <v>43797</v>
@@ -26178,7 +26178,7 @@
         <v>408</v>
       </c>
       <c r="H321" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I321" s="2">
         <v>43797</v>
@@ -26246,7 +26246,7 @@
         <v>411</v>
       </c>
       <c r="H322" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I322" s="2">
         <v>43797</v>
@@ -26314,7 +26314,7 @@
         <v>408</v>
       </c>
       <c r="H323" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I323" s="2">
         <v>43797</v>
@@ -26385,7 +26385,7 @@
         <v>408</v>
       </c>
       <c r="H324" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I324" s="2">
         <v>43797</v>
@@ -26456,7 +26456,7 @@
         <v>408</v>
       </c>
       <c r="H325" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I325" s="2">
         <v>43803</v>
@@ -26524,7 +26524,7 @@
         <v>408</v>
       </c>
       <c r="H326" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I326" s="2">
         <v>43819</v>
@@ -26595,7 +26595,7 @@
         <v>411</v>
       </c>
       <c r="H327" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I327" s="2">
         <v>43819</v>
@@ -26666,7 +26666,7 @@
         <v>408</v>
       </c>
       <c r="H328" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I328" s="2">
         <v>43819</v>
@@ -26737,7 +26737,7 @@
         <v>411</v>
       </c>
       <c r="H329" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I329" s="2">
         <v>43819</v>
@@ -26808,7 +26808,7 @@
         <v>408</v>
       </c>
       <c r="H330" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I330" s="2">
         <v>43819</v>
@@ -26879,7 +26879,7 @@
         <v>408</v>
       </c>
       <c r="H331" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I331" s="2">
         <v>43819</v>
@@ -26950,7 +26950,7 @@
         <v>411</v>
       </c>
       <c r="H332" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I332" s="2">
         <v>43819</v>
@@ -27021,7 +27021,7 @@
         <v>408</v>
       </c>
       <c r="H333" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I333" s="2">
         <v>43819</v>
@@ -27092,7 +27092,7 @@
         <v>411</v>
       </c>
       <c r="H334" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I334" s="2">
         <v>43819</v>
@@ -27160,16 +27160,16 @@
         <v>245</v>
       </c>
       <c r="G335" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H335" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I335" s="2">
         <v>43819</v>
       </c>
       <c r="J335" s="2">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="M335" s="2">
         <v>43960</v>
@@ -27193,10 +27193,10 @@
         <v>502</v>
       </c>
       <c r="T335">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="U335">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="V335">
         <v>0</v>
@@ -27208,13 +27208,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y335">
-        <v>5397.51051</v>
+        <v>10795.02102</v>
       </c>
       <c r="Z335" t="s">
         <v>526</v>
       </c>
       <c r="AA335" s="2">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="AB335" t="s">
         <v>568</v>
@@ -27225,22 +27225,22 @@
     </row>
     <row r="336" spans="5:29">
       <c r="E336" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F336" t="s">
         <v>245</v>
       </c>
       <c r="G336" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H336" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I336" s="2">
         <v>43819</v>
       </c>
       <c r="J336" s="2">
-        <v>43960</v>
+        <v>43923</v>
       </c>
       <c r="M336" s="2">
         <v>43960</v>
@@ -27264,10 +27264,10 @@
         <v>502</v>
       </c>
       <c r="T336">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="U336">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="V336">
         <v>0</v>
@@ -27279,13 +27279,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y336">
-        <v>10795.02102</v>
+        <v>26987.55255</v>
       </c>
       <c r="Z336" t="s">
         <v>526</v>
       </c>
       <c r="AA336" s="2">
-        <v>43960</v>
+        <v>43923</v>
       </c>
       <c r="AB336" t="s">
         <v>568</v>
@@ -27302,10 +27302,10 @@
         <v>245</v>
       </c>
       <c r="G337" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H337" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I337" s="2">
         <v>43819</v>
@@ -27335,10 +27335,10 @@
         <v>502</v>
       </c>
       <c r="T337">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="U337">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="V337">
         <v>0</v>
@@ -27350,7 +27350,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y337">
-        <v>26987.55255</v>
+        <v>21590.04204</v>
       </c>
       <c r="Z337" t="s">
         <v>526</v>
@@ -27367,22 +27367,22 @@
     </row>
     <row r="338" spans="5:29">
       <c r="E338" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F338" t="s">
         <v>245</v>
       </c>
       <c r="G338" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H338" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I338" s="2">
         <v>43819</v>
       </c>
       <c r="J338" s="2">
-        <v>43923</v>
+        <v>43959</v>
       </c>
       <c r="M338" s="2">
         <v>43960</v>
@@ -27406,10 +27406,10 @@
         <v>502</v>
       </c>
       <c r="T338">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="U338">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="V338">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y338">
-        <v>21590.04204</v>
+        <v>5397.51051</v>
       </c>
       <c r="Z338" t="s">
         <v>526</v>
       </c>
       <c r="AA338" s="2">
-        <v>43923</v>
+        <v>43959</v>
       </c>
       <c r="AB338" t="s">
         <v>568</v>
@@ -27447,7 +27447,7 @@
         <v>408</v>
       </c>
       <c r="H339" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I339" s="2">
         <v>43820</v>
@@ -27515,16 +27515,16 @@
         <v>247</v>
       </c>
       <c r="G340" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H340" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I340" s="2">
         <v>43820</v>
       </c>
       <c r="J340" s="2">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="M340" s="2">
         <v>43839</v>
@@ -27548,10 +27548,10 @@
         <v>502</v>
       </c>
       <c r="T340">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="U340">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="V340">
         <v>0</v>
@@ -27563,13 +27563,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y340">
-        <v>91955.6442</v>
+        <v>7298.067</v>
       </c>
       <c r="Z340" t="s">
         <v>521</v>
       </c>
       <c r="AA340" s="2">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="AB340" t="s">
         <v>568</v>
@@ -27586,16 +27586,16 @@
         <v>247</v>
       </c>
       <c r="G341" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H341" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I341" s="2">
         <v>43820</v>
       </c>
       <c r="J341" s="2">
-        <v>43836</v>
+        <v>43839</v>
       </c>
       <c r="M341" s="2">
         <v>43839</v>
@@ -27619,10 +27619,10 @@
         <v>502</v>
       </c>
       <c r="T341">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="U341">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="V341">
         <v>0</v>
@@ -27634,13 +27634,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y341">
-        <v>7298.067</v>
+        <v>91955.6442</v>
       </c>
       <c r="Z341" t="s">
         <v>521</v>
       </c>
       <c r="AA341" s="2">
-        <v>43836</v>
+        <v>43839</v>
       </c>
       <c r="AB341" t="s">
         <v>568</v>
@@ -27660,7 +27660,7 @@
         <v>408</v>
       </c>
       <c r="H342" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I342" s="2">
         <v>43820</v>
@@ -27731,7 +27731,7 @@
         <v>408</v>
       </c>
       <c r="H343" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I343" s="2">
         <v>43820</v>
@@ -27802,7 +27802,7 @@
         <v>408</v>
       </c>
       <c r="H344" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I344" s="2">
         <v>43820</v>
@@ -27873,7 +27873,7 @@
         <v>408</v>
       </c>
       <c r="H345" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I345" s="2">
         <v>43820</v>
@@ -27944,7 +27944,7 @@
         <v>411</v>
       </c>
       <c r="H346" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I346" s="2">
         <v>43820</v>
@@ -28015,7 +28015,7 @@
         <v>408</v>
       </c>
       <c r="H347" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I347" s="2">
         <v>43822</v>
@@ -28086,7 +28086,7 @@
         <v>411</v>
       </c>
       <c r="H348" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I348" s="2">
         <v>43822</v>
@@ -28148,22 +28148,22 @@
     </row>
     <row r="349" spans="5:29">
       <c r="E349" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F349" t="s">
         <v>253</v>
       </c>
       <c r="G349" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H349" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I349" s="2">
         <v>43822</v>
       </c>
       <c r="J349" s="2">
-        <v>43963</v>
+        <v>43931</v>
       </c>
       <c r="M349" s="2">
         <v>43962</v>
@@ -28181,16 +28181,16 @@
         <v>435</v>
       </c>
       <c r="R349" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="S349" t="s">
         <v>502</v>
       </c>
       <c r="T349">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="U349">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="V349">
         <v>0</v>
@@ -28202,13 +28202,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y349">
-        <v>273655.662</v>
+        <v>17611.503</v>
       </c>
       <c r="Z349" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="AA349" s="2">
-        <v>43963</v>
+        <v>43931</v>
       </c>
       <c r="AB349" t="s">
         <v>568</v>
@@ -28219,22 +28219,22 @@
     </row>
     <row r="350" spans="5:29">
       <c r="E350" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F350" t="s">
         <v>253</v>
       </c>
       <c r="G350" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H350" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I350" s="2">
         <v>43822</v>
       </c>
       <c r="J350" s="2">
-        <v>43923</v>
+        <v>43910</v>
       </c>
       <c r="M350" s="2">
         <v>43962</v>
@@ -28258,10 +28258,10 @@
         <v>502</v>
       </c>
       <c r="T350">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="U350">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="V350">
         <v>0</v>
@@ -28273,13 +28273,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y350">
-        <v>63672.357</v>
+        <v>29804.082</v>
       </c>
       <c r="Z350" t="s">
         <v>552</v>
       </c>
       <c r="AA350" s="2">
-        <v>43923</v>
+        <v>43910</v>
       </c>
       <c r="AB350" t="s">
         <v>568</v>
@@ -28290,22 +28290,22 @@
     </row>
     <row r="351" spans="5:29">
       <c r="E351" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F351" t="s">
         <v>253</v>
       </c>
       <c r="G351" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H351" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I351" s="2">
         <v>43822</v>
       </c>
       <c r="J351" s="2">
-        <v>43931</v>
+        <v>43963</v>
       </c>
       <c r="M351" s="2">
         <v>43962</v>
@@ -28323,16 +28323,16 @@
         <v>435</v>
       </c>
       <c r="R351" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="S351" t="s">
         <v>502</v>
       </c>
       <c r="T351">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="U351">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="V351">
         <v>0</v>
@@ -28344,13 +28344,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y351">
-        <v>17611.503</v>
+        <v>273655.662</v>
       </c>
       <c r="Z351" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="AA351" s="2">
-        <v>43931</v>
+        <v>43963</v>
       </c>
       <c r="AB351" t="s">
         <v>568</v>
@@ -28361,22 +28361,22 @@
     </row>
     <row r="352" spans="5:29">
       <c r="E352" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F352" t="s">
         <v>253</v>
       </c>
       <c r="G352" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H352" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I352" s="2">
         <v>43822</v>
       </c>
       <c r="J352" s="2">
-        <v>43910</v>
+        <v>43923</v>
       </c>
       <c r="M352" s="2">
         <v>43962</v>
@@ -28400,10 +28400,10 @@
         <v>502</v>
       </c>
       <c r="T352">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="U352">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="V352">
         <v>0</v>
@@ -28415,13 +28415,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y352">
-        <v>29804.082</v>
+        <v>63672.357</v>
       </c>
       <c r="Z352" t="s">
         <v>552</v>
       </c>
       <c r="AA352" s="2">
-        <v>43910</v>
+        <v>43923</v>
       </c>
       <c r="AB352" t="s">
         <v>568</v>
@@ -28787,13 +28787,13 @@
     </row>
     <row r="358" spans="5:29">
       <c r="E358" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F358" t="s">
         <v>255</v>
       </c>
       <c r="G358" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H358" t="s">
         <v>423</v>
@@ -28802,7 +28802,7 @@
         <v>43833</v>
       </c>
       <c r="J358" s="2">
-        <v>43972</v>
+        <v>44013</v>
       </c>
       <c r="M358" s="2">
         <v>44005</v>
@@ -28826,10 +28826,10 @@
         <v>502</v>
       </c>
       <c r="T358">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="U358">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="V358">
         <v>0</v>
@@ -28841,13 +28841,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y358">
-        <v>26987.55255</v>
+        <v>21590.04204</v>
       </c>
       <c r="Z358" t="s">
         <v>526</v>
       </c>
       <c r="AA358" s="2">
-        <v>43972</v>
+        <v>44013</v>
       </c>
       <c r="AB358" t="s">
         <v>568</v>
@@ -28864,7 +28864,7 @@
         <v>255</v>
       </c>
       <c r="G359" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H359" t="s">
         <v>423</v>
@@ -28873,7 +28873,7 @@
         <v>43833</v>
       </c>
       <c r="J359" s="2">
-        <v>43969</v>
+        <v>43963</v>
       </c>
       <c r="M359" s="2">
         <v>44005</v>
@@ -28918,7 +28918,7 @@
         <v>526</v>
       </c>
       <c r="AA359" s="2">
-        <v>43969</v>
+        <v>43963</v>
       </c>
       <c r="AB359" t="s">
         <v>568</v>
@@ -28935,7 +28935,7 @@
         <v>255</v>
       </c>
       <c r="G360" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H360" t="s">
         <v>423</v>
@@ -28944,7 +28944,7 @@
         <v>43833</v>
       </c>
       <c r="J360" s="2">
-        <v>43977</v>
+        <v>43972</v>
       </c>
       <c r="M360" s="2">
         <v>44005</v>
@@ -28968,10 +28968,10 @@
         <v>502</v>
       </c>
       <c r="T360">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="U360">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="V360">
         <v>0</v>
@@ -28983,13 +28983,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y360">
-        <v>53975.1051</v>
+        <v>26987.55255</v>
       </c>
       <c r="Z360" t="s">
         <v>526</v>
       </c>
       <c r="AA360" s="2">
-        <v>43977</v>
+        <v>43972</v>
       </c>
       <c r="AB360" t="s">
         <v>568</v>
@@ -29000,13 +29000,13 @@
     </row>
     <row r="361" spans="5:29">
       <c r="E361" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F361" t="s">
         <v>255</v>
       </c>
       <c r="G361" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H361" t="s">
         <v>423</v>
@@ -29015,7 +29015,7 @@
         <v>43833</v>
       </c>
       <c r="J361" s="2">
-        <v>44013</v>
+        <v>43969</v>
       </c>
       <c r="M361" s="2">
         <v>44005</v>
@@ -29039,10 +29039,10 @@
         <v>502</v>
       </c>
       <c r="T361">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="U361">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="V361">
         <v>0</v>
@@ -29054,13 +29054,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y361">
-        <v>21590.04204</v>
+        <v>16192.53153</v>
       </c>
       <c r="Z361" t="s">
         <v>526</v>
       </c>
       <c r="AA361" s="2">
-        <v>44013</v>
+        <v>43969</v>
       </c>
       <c r="AB361" t="s">
         <v>568</v>
@@ -29077,7 +29077,7 @@
         <v>255</v>
       </c>
       <c r="G362" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H362" t="s">
         <v>423</v>
@@ -29086,7 +29086,7 @@
         <v>43833</v>
       </c>
       <c r="J362" s="2">
-        <v>43963</v>
+        <v>43977</v>
       </c>
       <c r="M362" s="2">
         <v>44005</v>
@@ -29110,10 +29110,10 @@
         <v>502</v>
       </c>
       <c r="T362">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="U362">
-        <v>9000</v>
+        <v>30000</v>
       </c>
       <c r="V362">
         <v>0</v>
@@ -29125,13 +29125,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y362">
-        <v>16192.53153</v>
+        <v>53975.1051</v>
       </c>
       <c r="Z362" t="s">
         <v>526</v>
       </c>
       <c r="AA362" s="2">
-        <v>43963</v>
+        <v>43977</v>
       </c>
       <c r="AB362" t="s">
         <v>568</v>
@@ -31340,7 +31340,7 @@
         <v>274</v>
       </c>
       <c r="G394" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H394" t="s">
         <v>426</v>
@@ -31349,7 +31349,7 @@
         <v>43928</v>
       </c>
       <c r="J394" s="2">
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="M394" s="2">
         <v>43978</v>
@@ -31373,10 +31373,10 @@
         <v>502</v>
       </c>
       <c r="T394">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="U394">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="V394">
         <v>0</v>
@@ -31388,13 +31388,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y394">
-        <v>18885.82416</v>
+        <v>47214.5604</v>
       </c>
       <c r="Z394" t="s">
         <v>503</v>
       </c>
       <c r="AA394" s="2">
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="AB394" t="s">
         <v>568</v>
@@ -31411,7 +31411,7 @@
         <v>274</v>
       </c>
       <c r="G395" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H395" t="s">
         <v>426</v>
@@ -31420,7 +31420,7 @@
         <v>43928</v>
       </c>
       <c r="J395" s="2">
-        <v>43976</v>
+        <v>43972</v>
       </c>
       <c r="M395" s="2">
         <v>43978</v>
@@ -31444,10 +31444,10 @@
         <v>502</v>
       </c>
       <c r="T395">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="U395">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="V395">
         <v>0</v>
@@ -31459,13 +31459,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y395">
-        <v>37771.64832</v>
+        <v>18885.82416</v>
       </c>
       <c r="Z395" t="s">
         <v>503</v>
       </c>
       <c r="AA395" s="2">
-        <v>43976</v>
+        <v>43972</v>
       </c>
       <c r="AB395" t="s">
         <v>568</v>
@@ -31482,7 +31482,7 @@
         <v>274</v>
       </c>
       <c r="G396" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H396" t="s">
         <v>426</v>
@@ -31491,7 +31491,7 @@
         <v>43928</v>
       </c>
       <c r="J396" s="2">
-        <v>43963</v>
+        <v>43976</v>
       </c>
       <c r="M396" s="2">
         <v>43978</v>
@@ -31536,7 +31536,7 @@
         <v>503</v>
       </c>
       <c r="AA396" s="2">
-        <v>43963</v>
+        <v>43976</v>
       </c>
       <c r="AB396" t="s">
         <v>568</v>
@@ -31553,7 +31553,7 @@
         <v>274</v>
       </c>
       <c r="G397" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H397" t="s">
         <v>426</v>
@@ -31562,7 +31562,7 @@
         <v>43928</v>
       </c>
       <c r="J397" s="2">
-        <v>43979</v>
+        <v>43963</v>
       </c>
       <c r="M397" s="2">
         <v>43978</v>
@@ -31586,10 +31586,10 @@
         <v>502</v>
       </c>
       <c r="T397">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="U397">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="V397">
         <v>0</v>
@@ -31601,13 +31601,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y397">
-        <v>47214.5604</v>
+        <v>37771.64832</v>
       </c>
       <c r="Z397" t="s">
         <v>503</v>
       </c>
       <c r="AA397" s="2">
-        <v>43979</v>
+        <v>43963</v>
       </c>
       <c r="AB397" t="s">
         <v>568</v>
@@ -31970,13 +31970,13 @@
     </row>
     <row r="403" spans="5:29">
       <c r="E403" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F403" t="s">
         <v>279</v>
       </c>
       <c r="G403" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H403" t="s">
         <v>426</v>
@@ -31985,7 +31985,7 @@
         <v>43937</v>
       </c>
       <c r="J403" s="2">
-        <v>43959</v>
+        <v>43997</v>
       </c>
       <c r="M403" s="2">
         <v>44005</v>
@@ -32003,34 +32003,34 @@
         <v>435</v>
       </c>
       <c r="R403" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="S403" t="s">
         <v>502</v>
       </c>
       <c r="T403">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="U403">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="V403">
         <v>0</v>
       </c>
       <c r="W403">
-        <v>740</v>
+        <v>86</v>
       </c>
       <c r="X403">
         <v>4.3701</v>
       </c>
       <c r="Y403">
-        <v>64677.48</v>
+        <v>21798.0588</v>
       </c>
       <c r="Z403" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="AA403" s="2">
-        <v>43959</v>
+        <v>43997</v>
       </c>
       <c r="AB403" t="s">
         <v>568</v>
@@ -32041,13 +32041,13 @@
     </row>
     <row r="404" spans="5:29">
       <c r="E404" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F404" t="s">
         <v>279</v>
       </c>
       <c r="G404" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H404" t="s">
         <v>426</v>
@@ -32056,7 +32056,7 @@
         <v>43937</v>
       </c>
       <c r="J404" s="2">
-        <v>43991</v>
+        <v>43959</v>
       </c>
       <c r="M404" s="2">
         <v>44005</v>
@@ -32074,34 +32074,34 @@
         <v>435</v>
       </c>
       <c r="R404" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="S404" t="s">
         <v>502</v>
       </c>
       <c r="T404">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U404">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="V404">
         <v>0</v>
       </c>
       <c r="W404">
-        <v>86</v>
+        <v>740</v>
       </c>
       <c r="X404">
         <v>4.3701</v>
       </c>
       <c r="Y404">
-        <v>14281.4868</v>
+        <v>64677.48</v>
       </c>
       <c r="Z404" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="AA404" s="2">
-        <v>43991</v>
+        <v>43959</v>
       </c>
       <c r="AB404" t="s">
         <v>568</v>
@@ -32118,7 +32118,7 @@
         <v>279</v>
       </c>
       <c r="G405" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H405" t="s">
         <v>426</v>
@@ -32127,7 +32127,7 @@
         <v>43937</v>
       </c>
       <c r="J405" s="2">
-        <v>43997</v>
+        <v>43991</v>
       </c>
       <c r="M405" s="2">
         <v>44005</v>
@@ -32151,10 +32151,10 @@
         <v>502</v>
       </c>
       <c r="T405">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="U405">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="V405">
         <v>0</v>
@@ -32166,13 +32166,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y405">
-        <v>21798.0588</v>
+        <v>14281.4868</v>
       </c>
       <c r="Z405" t="s">
         <v>557</v>
       </c>
       <c r="AA405" s="2">
-        <v>43997</v>
+        <v>43991</v>
       </c>
       <c r="AB405" t="s">
         <v>568</v>
@@ -35919,7 +35919,7 @@
         <v>311</v>
       </c>
       <c r="G459" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H459" t="s">
         <v>422</v>
@@ -35928,7 +35928,7 @@
         <v>44018</v>
       </c>
       <c r="J459" s="2">
-        <v>44055</v>
+        <v>44046</v>
       </c>
       <c r="M459" s="2">
         <v>44067</v>
@@ -35952,10 +35952,10 @@
         <v>502</v>
       </c>
       <c r="T459">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U459">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V459">
         <v>0</v>
@@ -35967,13 +35967,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y459">
-        <v>6773.655</v>
+        <v>13547.31</v>
       </c>
       <c r="Z459" t="s">
         <v>543</v>
       </c>
       <c r="AA459" s="2">
-        <v>44055</v>
+        <v>44046</v>
       </c>
       <c r="AB459" t="s">
         <v>568</v>
@@ -36203,7 +36203,7 @@
         <v>311</v>
       </c>
       <c r="G463" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H463" t="s">
         <v>422</v>
@@ -36212,7 +36212,7 @@
         <v>44018</v>
       </c>
       <c r="J463" s="2">
-        <v>44050</v>
+        <v>44047</v>
       </c>
       <c r="M463" s="2">
         <v>44067</v>
@@ -36236,10 +36236,10 @@
         <v>502</v>
       </c>
       <c r="T463">
-        <v>563</v>
+        <v>487</v>
       </c>
       <c r="U463">
-        <v>563</v>
+        <v>487</v>
       </c>
       <c r="V463">
         <v>0</v>
@@ -36251,13 +36251,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y463">
-        <v>762713.553</v>
+        <v>659753.997</v>
       </c>
       <c r="Z463" t="s">
         <v>543</v>
       </c>
       <c r="AA463" s="2">
-        <v>44050</v>
+        <v>44047</v>
       </c>
       <c r="AB463" t="s">
         <v>568</v>
@@ -36274,7 +36274,7 @@
         <v>311</v>
       </c>
       <c r="G464" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H464" t="s">
         <v>422</v>
@@ -36283,7 +36283,7 @@
         <v>44018</v>
       </c>
       <c r="J464" s="2">
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="M464" s="2">
         <v>44067</v>
@@ -36307,10 +36307,10 @@
         <v>502</v>
       </c>
       <c r="T464">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U464">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V464">
         <v>0</v>
@@ -36322,13 +36322,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y464">
-        <v>8128.386</v>
+        <v>6773.655</v>
       </c>
       <c r="Z464" t="s">
         <v>543</v>
       </c>
       <c r="AA464" s="2">
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="AB464" t="s">
         <v>568</v>
@@ -36345,7 +36345,7 @@
         <v>311</v>
       </c>
       <c r="G465" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H465" t="s">
         <v>422</v>
@@ -36354,7 +36354,7 @@
         <v>44018</v>
       </c>
       <c r="J465" s="2">
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="M465" s="2">
         <v>44067</v>
@@ -36378,10 +36378,10 @@
         <v>502</v>
       </c>
       <c r="T465">
-        <v>10</v>
+        <v>563</v>
       </c>
       <c r="U465">
-        <v>10</v>
+        <v>563</v>
       </c>
       <c r="V465">
         <v>0</v>
@@ -36393,13 +36393,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y465">
-        <v>13547.31</v>
+        <v>762713.553</v>
       </c>
       <c r="Z465" t="s">
         <v>543</v>
       </c>
       <c r="AA465" s="2">
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="AB465" t="s">
         <v>568</v>
@@ -36416,7 +36416,7 @@
         <v>311</v>
       </c>
       <c r="G466" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H466" t="s">
         <v>422</v>
@@ -36425,7 +36425,7 @@
         <v>44018</v>
       </c>
       <c r="J466" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="M466" s="2">
         <v>44067</v>
@@ -36449,10 +36449,10 @@
         <v>502</v>
       </c>
       <c r="T466">
-        <v>487</v>
+        <v>6</v>
       </c>
       <c r="U466">
-        <v>487</v>
+        <v>6</v>
       </c>
       <c r="V466">
         <v>0</v>
@@ -36464,13 +36464,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y466">
-        <v>659753.997</v>
+        <v>8128.386</v>
       </c>
       <c r="Z466" t="s">
         <v>543</v>
       </c>
       <c r="AA466" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="AB466" t="s">
         <v>568</v>
@@ -36487,7 +36487,7 @@
         <v>311</v>
       </c>
       <c r="G467" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H467" t="s">
         <v>422</v>
@@ -36496,7 +36496,7 @@
         <v>44018</v>
       </c>
       <c r="J467" s="2">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="M467" s="2">
         <v>44067</v>
@@ -36541,7 +36541,7 @@
         <v>543</v>
       </c>
       <c r="AA467" s="2">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="AB467" t="s">
         <v>568</v>
@@ -37623,7 +37623,7 @@
         <v>322</v>
       </c>
       <c r="G483" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H483" t="s">
         <v>422</v>
@@ -37656,10 +37656,10 @@
         <v>502</v>
       </c>
       <c r="T483">
-        <v>491</v>
+        <v>264</v>
       </c>
       <c r="U483">
-        <v>491</v>
+        <v>264</v>
       </c>
       <c r="V483">
         <v>0</v>
@@ -37671,7 +37671,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y483">
-        <v>665172.921</v>
+        <v>357648.984</v>
       </c>
       <c r="Z483" t="s">
         <v>552</v>
@@ -37694,7 +37694,7 @@
         <v>322</v>
       </c>
       <c r="G484" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H484" t="s">
         <v>422</v>
@@ -37703,7 +37703,7 @@
         <v>44032</v>
       </c>
       <c r="J484" s="2">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="M484" s="2">
         <v>44111</v>
@@ -37727,10 +37727,10 @@
         <v>502</v>
       </c>
       <c r="T484">
-        <v>10</v>
+        <v>556</v>
       </c>
       <c r="U484">
-        <v>10</v>
+        <v>556</v>
       </c>
       <c r="V484">
         <v>0</v>
@@ -37742,13 +37742,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y484">
-        <v>13547.31</v>
+        <v>753230.436</v>
       </c>
       <c r="Z484" t="s">
         <v>552</v>
       </c>
       <c r="AA484" s="2">
-        <v>44078</v>
+        <v>44083</v>
       </c>
       <c r="AB484" t="s">
         <v>568</v>
@@ -37765,7 +37765,7 @@
         <v>322</v>
       </c>
       <c r="G485" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H485" t="s">
         <v>422</v>
@@ -37798,10 +37798,10 @@
         <v>502</v>
       </c>
       <c r="T485">
-        <v>264</v>
+        <v>491</v>
       </c>
       <c r="U485">
-        <v>264</v>
+        <v>491</v>
       </c>
       <c r="V485">
         <v>0</v>
@@ -37813,7 +37813,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y485">
-        <v>357648.984</v>
+        <v>665172.921</v>
       </c>
       <c r="Z485" t="s">
         <v>552</v>
@@ -37836,7 +37836,7 @@
         <v>322</v>
       </c>
       <c r="G486" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H486" t="s">
         <v>422</v>
@@ -37845,7 +37845,7 @@
         <v>44032</v>
       </c>
       <c r="J486" s="2">
-        <v>44083</v>
+        <v>44078</v>
       </c>
       <c r="M486" s="2">
         <v>44111</v>
@@ -37869,10 +37869,10 @@
         <v>502</v>
       </c>
       <c r="T486">
-        <v>556</v>
+        <v>10</v>
       </c>
       <c r="U486">
-        <v>556</v>
+        <v>10</v>
       </c>
       <c r="V486">
         <v>0</v>
@@ -37884,13 +37884,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y486">
-        <v>753230.436</v>
+        <v>13547.31</v>
       </c>
       <c r="Z486" t="s">
         <v>552</v>
       </c>
       <c r="AA486" s="2">
-        <v>44083</v>
+        <v>44078</v>
       </c>
       <c r="AB486" t="s">
         <v>568</v>
@@ -38049,7 +38049,7 @@
         <v>323</v>
       </c>
       <c r="G489" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H489" t="s">
         <v>422</v>
@@ -38058,7 +38058,7 @@
         <v>44034</v>
       </c>
       <c r="J489" s="2">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="M489" s="2">
         <v>44098</v>
@@ -38082,10 +38082,10 @@
         <v>502</v>
       </c>
       <c r="T489">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="U489">
-        <v>5</v>
+        <v>343</v>
       </c>
       <c r="V489">
         <v>0</v>
@@ -38097,13 +38097,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y489">
-        <v>6773.655</v>
+        <v>464672.733</v>
       </c>
       <c r="Z489" t="s">
         <v>543</v>
       </c>
       <c r="AA489" s="2">
-        <v>44092</v>
+        <v>44095</v>
       </c>
       <c r="AB489" t="s">
         <v>568</v>
@@ -38120,7 +38120,7 @@
         <v>323</v>
       </c>
       <c r="G490" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H490" t="s">
         <v>422</v>
@@ -38129,7 +38129,7 @@
         <v>44034</v>
       </c>
       <c r="J490" s="2">
-        <v>44083</v>
+        <v>44089</v>
       </c>
       <c r="M490" s="2">
         <v>44098</v>
@@ -38153,10 +38153,10 @@
         <v>502</v>
       </c>
       <c r="T490">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="U490">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="V490">
         <v>0</v>
@@ -38168,13 +38168,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y490">
-        <v>522926.166</v>
+        <v>532409.2830000001</v>
       </c>
       <c r="Z490" t="s">
         <v>543</v>
       </c>
       <c r="AA490" s="2">
-        <v>44083</v>
+        <v>44089</v>
       </c>
       <c r="AB490" t="s">
         <v>568</v>
@@ -38191,7 +38191,7 @@
         <v>323</v>
       </c>
       <c r="G491" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H491" t="s">
         <v>422</v>
@@ -38200,7 +38200,7 @@
         <v>44034</v>
       </c>
       <c r="J491" s="2">
-        <v>44095</v>
+        <v>44099</v>
       </c>
       <c r="M491" s="2">
         <v>44098</v>
@@ -38224,10 +38224,10 @@
         <v>502</v>
       </c>
       <c r="T491">
-        <v>343</v>
+        <v>775</v>
       </c>
       <c r="U491">
-        <v>343</v>
+        <v>775</v>
       </c>
       <c r="V491">
         <v>0</v>
@@ -38239,13 +38239,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y491">
-        <v>464672.733</v>
+        <v>1049916.525</v>
       </c>
       <c r="Z491" t="s">
         <v>543</v>
       </c>
       <c r="AA491" s="2">
-        <v>44095</v>
+        <v>44099</v>
       </c>
       <c r="AB491" t="s">
         <v>568</v>
@@ -38262,7 +38262,7 @@
         <v>323</v>
       </c>
       <c r="G492" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H492" t="s">
         <v>422</v>
@@ -38271,7 +38271,7 @@
         <v>44034</v>
       </c>
       <c r="J492" s="2">
-        <v>44089</v>
+        <v>44092</v>
       </c>
       <c r="M492" s="2">
         <v>44098</v>
@@ -38295,10 +38295,10 @@
         <v>502</v>
       </c>
       <c r="T492">
-        <v>393</v>
+        <v>5</v>
       </c>
       <c r="U492">
-        <v>393</v>
+        <v>5</v>
       </c>
       <c r="V492">
         <v>0</v>
@@ -38310,13 +38310,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y492">
-        <v>532409.2830000001</v>
+        <v>6773.655</v>
       </c>
       <c r="Z492" t="s">
         <v>543</v>
       </c>
       <c r="AA492" s="2">
-        <v>44089</v>
+        <v>44092</v>
       </c>
       <c r="AB492" t="s">
         <v>568</v>
@@ -38333,7 +38333,7 @@
         <v>323</v>
       </c>
       <c r="G493" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H493" t="s">
         <v>422</v>
@@ -38342,7 +38342,7 @@
         <v>44034</v>
       </c>
       <c r="J493" s="2">
-        <v>44099</v>
+        <v>44083</v>
       </c>
       <c r="M493" s="2">
         <v>44098</v>
@@ -38366,10 +38366,10 @@
         <v>502</v>
       </c>
       <c r="T493">
-        <v>775</v>
+        <v>386</v>
       </c>
       <c r="U493">
-        <v>775</v>
+        <v>386</v>
       </c>
       <c r="V493">
         <v>0</v>
@@ -38381,13 +38381,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y493">
-        <v>1049916.525</v>
+        <v>522926.166</v>
       </c>
       <c r="Z493" t="s">
         <v>543</v>
       </c>
       <c r="AA493" s="2">
-        <v>44099</v>
+        <v>44083</v>
       </c>
       <c r="AB493" t="s">
         <v>568</v>
@@ -38540,13 +38540,13 @@
     </row>
     <row r="496" spans="5:29">
       <c r="E496" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F496" t="s">
         <v>324</v>
       </c>
       <c r="G496" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H496" t="s">
         <v>422</v>
@@ -38555,7 +38555,7 @@
         <v>44034</v>
       </c>
       <c r="J496" s="2">
-        <v>44068</v>
+        <v>44095</v>
       </c>
       <c r="M496" s="2">
         <v>44095</v>
@@ -38579,10 +38579,10 @@
         <v>502</v>
       </c>
       <c r="T496">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="U496">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="V496">
         <v>0</v>
@@ -38594,13 +38594,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y496">
-        <v>6773.655</v>
+        <v>235723.194</v>
       </c>
       <c r="Z496" t="s">
         <v>543</v>
       </c>
       <c r="AA496" s="2">
-        <v>44068</v>
+        <v>44095</v>
       </c>
       <c r="AB496" t="s">
         <v>568</v>
@@ -38617,7 +38617,7 @@
         <v>324</v>
       </c>
       <c r="G497" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H497" t="s">
         <v>422</v>
@@ -38650,10 +38650,10 @@
         <v>502</v>
       </c>
       <c r="T497">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="U497">
-        <v>249</v>
+        <v>5</v>
       </c>
       <c r="V497">
         <v>0</v>
@@ -38665,7 +38665,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y497">
-        <v>337328.019</v>
+        <v>6773.655</v>
       </c>
       <c r="Z497" t="s">
         <v>543</v>
@@ -38682,13 +38682,13 @@
     </row>
     <row r="498" spans="5:29">
       <c r="E498" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F498" t="s">
         <v>324</v>
       </c>
       <c r="G498" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H498" t="s">
         <v>422</v>
@@ -38697,7 +38697,7 @@
         <v>44034</v>
       </c>
       <c r="J498" s="2">
-        <v>44078</v>
+        <v>44068</v>
       </c>
       <c r="M498" s="2">
         <v>44095</v>
@@ -38721,10 +38721,10 @@
         <v>502</v>
       </c>
       <c r="T498">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="U498">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="V498">
         <v>0</v>
@@ -38736,13 +38736,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y498">
-        <v>434868.651</v>
+        <v>337328.019</v>
       </c>
       <c r="Z498" t="s">
         <v>543</v>
       </c>
       <c r="AA498" s="2">
-        <v>44078</v>
+        <v>44068</v>
       </c>
       <c r="AB498" t="s">
         <v>568</v>
@@ -38759,7 +38759,7 @@
         <v>324</v>
       </c>
       <c r="G499" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H499" t="s">
         <v>422</v>
@@ -38768,7 +38768,7 @@
         <v>44034</v>
       </c>
       <c r="J499" s="2">
-        <v>44092</v>
+        <v>44078</v>
       </c>
       <c r="M499" s="2">
         <v>44095</v>
@@ -38792,10 +38792,10 @@
         <v>502</v>
       </c>
       <c r="T499">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="U499">
-        <v>386</v>
+        <v>321</v>
       </c>
       <c r="V499">
         <v>0</v>
@@ -38807,13 +38807,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y499">
-        <v>522926.166</v>
+        <v>434868.651</v>
       </c>
       <c r="Z499" t="s">
         <v>543</v>
       </c>
       <c r="AA499" s="2">
-        <v>44092</v>
+        <v>44078</v>
       </c>
       <c r="AB499" t="s">
         <v>568</v>
@@ -38830,7 +38830,7 @@
         <v>324</v>
       </c>
       <c r="G500" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H500" t="s">
         <v>422</v>
@@ -38839,7 +38839,7 @@
         <v>44034</v>
       </c>
       <c r="J500" s="2">
-        <v>44076</v>
+        <v>44092</v>
       </c>
       <c r="M500" s="2">
         <v>44095</v>
@@ -38863,10 +38863,10 @@
         <v>502</v>
       </c>
       <c r="T500">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="U500">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="V500">
         <v>0</v>
@@ -38878,13 +38878,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y500">
-        <v>6773.655</v>
+        <v>522926.166</v>
       </c>
       <c r="Z500" t="s">
         <v>543</v>
       </c>
       <c r="AA500" s="2">
-        <v>44076</v>
+        <v>44092</v>
       </c>
       <c r="AB500" t="s">
         <v>568</v>
@@ -38901,7 +38901,7 @@
         <v>324</v>
       </c>
       <c r="G501" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H501" t="s">
         <v>422</v>
@@ -38910,7 +38910,7 @@
         <v>44034</v>
       </c>
       <c r="J501" s="2">
-        <v>44088</v>
+        <v>44076</v>
       </c>
       <c r="M501" s="2">
         <v>44095</v>
@@ -38934,10 +38934,10 @@
         <v>502</v>
       </c>
       <c r="T501">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="U501">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="V501">
         <v>0</v>
@@ -38949,13 +38949,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y501">
-        <v>330554.364</v>
+        <v>6773.655</v>
       </c>
       <c r="Z501" t="s">
         <v>543</v>
       </c>
       <c r="AA501" s="2">
-        <v>44088</v>
+        <v>44076</v>
       </c>
       <c r="AB501" t="s">
         <v>568</v>
@@ -38972,7 +38972,7 @@
         <v>324</v>
       </c>
       <c r="G502" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H502" t="s">
         <v>422</v>
@@ -38981,7 +38981,7 @@
         <v>44034</v>
       </c>
       <c r="J502" s="2">
-        <v>44095</v>
+        <v>44088</v>
       </c>
       <c r="M502" s="2">
         <v>44095</v>
@@ -39005,10 +39005,10 @@
         <v>502</v>
       </c>
       <c r="T502">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="U502">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="V502">
         <v>0</v>
@@ -39020,13 +39020,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y502">
-        <v>235723.194</v>
+        <v>330554.364</v>
       </c>
       <c r="Z502" t="s">
         <v>543</v>
       </c>
       <c r="AA502" s="2">
-        <v>44095</v>
+        <v>44088</v>
       </c>
       <c r="AB502" t="s">
         <v>568</v>
@@ -39463,7 +39463,7 @@
         <v>408</v>
       </c>
       <c r="H509" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I509" s="2">
         <v>44117</v>
@@ -39534,7 +39534,7 @@
         <v>408</v>
       </c>
       <c r="H510" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I510" s="2">
         <v>44117</v>
@@ -39602,7 +39602,7 @@
         <v>408</v>
       </c>
       <c r="H511" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I511" s="2">
         <v>44159</v>
@@ -39670,7 +39670,7 @@
         <v>408</v>
       </c>
       <c r="H512" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I512" s="2">
         <v>44159</v>
@@ -39738,7 +39738,7 @@
         <v>408</v>
       </c>
       <c r="H513" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I513" s="2">
         <v>44159</v>
@@ -39806,7 +39806,7 @@
         <v>408</v>
       </c>
       <c r="H514" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I514" s="2">
         <v>44159</v>
@@ -39874,7 +39874,7 @@
         <v>408</v>
       </c>
       <c r="H515" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I515" s="2">
         <v>44159</v>
@@ -39942,7 +39942,7 @@
         <v>408</v>
       </c>
       <c r="H516" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I516" s="2">
         <v>44159</v>
@@ -40010,7 +40010,7 @@
         <v>408</v>
       </c>
       <c r="H517" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I517" s="2">
         <v>44162</v>
@@ -40492,7 +40492,7 @@
         <v>346</v>
       </c>
       <c r="G524" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H524" t="s">
         <v>429</v>
@@ -40525,10 +40525,10 @@
         <v>502</v>
       </c>
       <c r="T524">
-        <v>3000</v>
+        <v>75000</v>
       </c>
       <c r="U524">
-        <v>3000</v>
+        <v>75000</v>
       </c>
       <c r="V524">
         <v>0</v>
@@ -40540,13 +40540,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y524">
-        <v>2097.648</v>
+        <v>52441.2</v>
       </c>
       <c r="Z524" t="s">
         <v>562</v>
       </c>
       <c r="AA524" s="2">
-        <v>44076</v>
+        <v>44067</v>
       </c>
       <c r="AB524" t="s">
         <v>568</v>
@@ -40563,7 +40563,7 @@
         <v>346</v>
       </c>
       <c r="G525" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H525" t="s">
         <v>429</v>
@@ -40596,10 +40596,10 @@
         <v>502</v>
       </c>
       <c r="T525">
-        <v>75000</v>
+        <v>3000</v>
       </c>
       <c r="U525">
-        <v>75000</v>
+        <v>3000</v>
       </c>
       <c r="V525">
         <v>0</v>
@@ -40611,13 +40611,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y525">
-        <v>52441.2</v>
+        <v>2097.648</v>
       </c>
       <c r="Z525" t="s">
         <v>562</v>
       </c>
       <c r="AA525" s="2">
-        <v>44067</v>
+        <v>44076</v>
       </c>
       <c r="AB525" t="s">
         <v>568</v>
@@ -40847,7 +40847,7 @@
         <v>350</v>
       </c>
       <c r="G529" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H529" t="s">
         <v>429</v>
@@ -40856,7 +40856,7 @@
         <v>44061</v>
       </c>
       <c r="J529" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="M529" s="2">
         <v>44172</v>
@@ -40880,10 +40880,10 @@
         <v>502</v>
       </c>
       <c r="T529">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="U529">
-        <v>5</v>
+        <v>315</v>
       </c>
       <c r="V529">
         <v>0</v>
@@ -40895,13 +40895,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y529">
-        <v>6773.655</v>
+        <v>426740.265</v>
       </c>
       <c r="Z529" t="s">
         <v>543</v>
       </c>
       <c r="AA529" s="2">
-        <v>44098</v>
+        <v>44099</v>
       </c>
       <c r="AB529" t="s">
         <v>568</v>
@@ -40912,13 +40912,13 @@
     </row>
     <row r="530" spans="5:29">
       <c r="E530" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F530" t="s">
         <v>350</v>
       </c>
       <c r="G530" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H530" t="s">
         <v>429</v>
@@ -40927,7 +40927,7 @@
         <v>44061</v>
       </c>
       <c r="J530" s="2">
-        <v>44099</v>
+        <v>44113</v>
       </c>
       <c r="M530" s="2">
         <v>44172</v>
@@ -40951,10 +40951,10 @@
         <v>502</v>
       </c>
       <c r="T530">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="U530">
-        <v>315</v>
+        <v>15</v>
       </c>
       <c r="V530">
         <v>0</v>
@@ -40966,13 +40966,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y530">
-        <v>426740.265</v>
+        <v>20320.965</v>
       </c>
       <c r="Z530" t="s">
         <v>543</v>
       </c>
       <c r="AA530" s="2">
-        <v>44099</v>
+        <v>44113</v>
       </c>
       <c r="AB530" t="s">
         <v>568</v>
@@ -40983,13 +40983,13 @@
     </row>
     <row r="531" spans="5:29">
       <c r="E531" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F531" t="s">
         <v>350</v>
       </c>
       <c r="G531" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H531" t="s">
         <v>429</v>
@@ -40998,7 +40998,7 @@
         <v>44061</v>
       </c>
       <c r="J531" s="2">
-        <v>44113</v>
+        <v>44098</v>
       </c>
       <c r="M531" s="2">
         <v>44172</v>
@@ -41022,10 +41022,10 @@
         <v>502</v>
       </c>
       <c r="T531">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="U531">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="V531">
         <v>0</v>
@@ -41037,13 +41037,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y531">
-        <v>20320.965</v>
+        <v>6773.655</v>
       </c>
       <c r="Z531" t="s">
         <v>543</v>
       </c>
       <c r="AA531" s="2">
-        <v>44113</v>
+        <v>44098</v>
       </c>
       <c r="AB531" t="s">
         <v>568</v>
@@ -41054,7 +41054,7 @@
     </row>
     <row r="532" spans="5:29">
       <c r="E532" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F532" t="s">
         <v>350</v>
@@ -41069,7 +41069,7 @@
         <v>44061</v>
       </c>
       <c r="J532" s="2">
-        <v>44130</v>
+        <v>44169</v>
       </c>
       <c r="M532" s="2">
         <v>44172</v>
@@ -41093,10 +41093,10 @@
         <v>502</v>
       </c>
       <c r="T532">
-        <v>503</v>
+        <v>83</v>
       </c>
       <c r="U532">
-        <v>503</v>
+        <v>83</v>
       </c>
       <c r="V532">
         <v>0</v>
@@ -41108,13 +41108,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y532">
-        <v>681429.693</v>
+        <v>112442.673</v>
       </c>
       <c r="Z532" t="s">
         <v>543</v>
       </c>
       <c r="AA532" s="2">
-        <v>44130</v>
+        <v>44169</v>
       </c>
       <c r="AB532" t="s">
         <v>568</v>
@@ -41125,7 +41125,7 @@
     </row>
     <row r="533" spans="5:29">
       <c r="E533" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F533" t="s">
         <v>350</v>
@@ -41140,7 +41140,7 @@
         <v>44061</v>
       </c>
       <c r="J533" s="2">
-        <v>44169</v>
+        <v>44131</v>
       </c>
       <c r="M533" s="2">
         <v>44172</v>
@@ -41164,10 +41164,10 @@
         <v>502</v>
       </c>
       <c r="T533">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="U533">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="V533">
         <v>0</v>
@@ -41179,13 +41179,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y533">
-        <v>112442.673</v>
+        <v>6773.655</v>
       </c>
       <c r="Z533" t="s">
         <v>543</v>
       </c>
       <c r="AA533" s="2">
-        <v>44169</v>
+        <v>44131</v>
       </c>
       <c r="AB533" t="s">
         <v>568</v>
@@ -41196,7 +41196,7 @@
     </row>
     <row r="534" spans="5:29">
       <c r="E534" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F534" t="s">
         <v>350</v>
@@ -41211,7 +41211,7 @@
         <v>44061</v>
       </c>
       <c r="J534" s="2">
-        <v>44131</v>
+        <v>44137</v>
       </c>
       <c r="M534" s="2">
         <v>44172</v>
@@ -41235,10 +41235,10 @@
         <v>502</v>
       </c>
       <c r="T534">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="U534">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="V534">
         <v>0</v>
@@ -41250,13 +41250,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y534">
-        <v>6773.655</v>
+        <v>101604.825</v>
       </c>
       <c r="Z534" t="s">
         <v>543</v>
       </c>
       <c r="AA534" s="2">
-        <v>44131</v>
+        <v>44137</v>
       </c>
       <c r="AB534" t="s">
         <v>568</v>
@@ -41267,13 +41267,13 @@
     </row>
     <row r="535" spans="5:29">
       <c r="E535" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F535" t="s">
         <v>350</v>
       </c>
       <c r="G535" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H535" t="s">
         <v>429</v>
@@ -41282,7 +41282,7 @@
         <v>44061</v>
       </c>
       <c r="J535" s="2">
-        <v>44137</v>
+        <v>44113</v>
       </c>
       <c r="M535" s="2">
         <v>44172</v>
@@ -41306,10 +41306,10 @@
         <v>502</v>
       </c>
       <c r="T535">
-        <v>75</v>
+        <v>935</v>
       </c>
       <c r="U535">
-        <v>75</v>
+        <v>935</v>
       </c>
       <c r="V535">
         <v>0</v>
@@ -41321,13 +41321,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y535">
-        <v>101604.825</v>
+        <v>1266673.485</v>
       </c>
       <c r="Z535" t="s">
         <v>543</v>
       </c>
       <c r="AA535" s="2">
-        <v>44137</v>
+        <v>44113</v>
       </c>
       <c r="AB535" t="s">
         <v>568</v>
@@ -41344,7 +41344,7 @@
         <v>350</v>
       </c>
       <c r="G536" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H536" t="s">
         <v>429</v>
@@ -41353,7 +41353,7 @@
         <v>44061</v>
       </c>
       <c r="J536" s="2">
-        <v>44113</v>
+        <v>44120</v>
       </c>
       <c r="M536" s="2">
         <v>44172</v>
@@ -41377,10 +41377,10 @@
         <v>502</v>
       </c>
       <c r="T536">
-        <v>935</v>
+        <v>5</v>
       </c>
       <c r="U536">
-        <v>935</v>
+        <v>5</v>
       </c>
       <c r="V536">
         <v>0</v>
@@ -41392,13 +41392,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y536">
-        <v>1266673.485</v>
+        <v>6773.655</v>
       </c>
       <c r="Z536" t="s">
         <v>543</v>
       </c>
       <c r="AA536" s="2">
-        <v>44113</v>
+        <v>44120</v>
       </c>
       <c r="AB536" t="s">
         <v>568</v>
@@ -41415,7 +41415,7 @@
         <v>350</v>
       </c>
       <c r="G537" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H537" t="s">
         <v>429</v>
@@ -41448,10 +41448,10 @@
         <v>502</v>
       </c>
       <c r="T537">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U537">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V537">
         <v>0</v>
@@ -41463,7 +41463,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y537">
-        <v>6773.655</v>
+        <v>8128.386</v>
       </c>
       <c r="Z537" t="s">
         <v>543</v>
@@ -41486,7 +41486,7 @@
         <v>350</v>
       </c>
       <c r="G538" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H538" t="s">
         <v>429</v>
@@ -41519,10 +41519,10 @@
         <v>502</v>
       </c>
       <c r="T538">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="U538">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="V538">
         <v>0</v>
@@ -41534,7 +41534,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y538">
-        <v>8128.386</v>
+        <v>502605.201</v>
       </c>
       <c r="Z538" t="s">
         <v>543</v>
@@ -41557,7 +41557,7 @@
         <v>350</v>
       </c>
       <c r="G539" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H539" t="s">
         <v>429</v>
@@ -41566,7 +41566,7 @@
         <v>44061</v>
       </c>
       <c r="J539" s="2">
-        <v>44120</v>
+        <v>44123</v>
       </c>
       <c r="M539" s="2">
         <v>44172</v>
@@ -41590,10 +41590,10 @@
         <v>502</v>
       </c>
       <c r="T539">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="U539">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="V539">
         <v>0</v>
@@ -41605,13 +41605,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y539">
-        <v>502605.201</v>
+        <v>6773.655</v>
       </c>
       <c r="Z539" t="s">
         <v>543</v>
       </c>
       <c r="AA539" s="2">
-        <v>44120</v>
+        <v>44123</v>
       </c>
       <c r="AB539" t="s">
         <v>568</v>
@@ -41628,7 +41628,7 @@
         <v>350</v>
       </c>
       <c r="G540" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H540" t="s">
         <v>429</v>
@@ -41661,10 +41661,10 @@
         <v>502</v>
       </c>
       <c r="T540">
-        <v>5</v>
+        <v>601</v>
       </c>
       <c r="U540">
-        <v>5</v>
+        <v>601</v>
       </c>
       <c r="V540">
         <v>0</v>
@@ -41676,7 +41676,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y540">
-        <v>6773.655</v>
+        <v>814193.331</v>
       </c>
       <c r="Z540" t="s">
         <v>543</v>
@@ -41699,7 +41699,7 @@
         <v>350</v>
       </c>
       <c r="G541" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H541" t="s">
         <v>429</v>
@@ -41708,7 +41708,7 @@
         <v>44061</v>
       </c>
       <c r="J541" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="M541" s="2">
         <v>44172</v>
@@ -41732,10 +41732,10 @@
         <v>502</v>
       </c>
       <c r="T541">
-        <v>601</v>
+        <v>254</v>
       </c>
       <c r="U541">
-        <v>601</v>
+        <v>254</v>
       </c>
       <c r="V541">
         <v>0</v>
@@ -41747,13 +41747,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y541">
-        <v>814193.331</v>
+        <v>344101.674</v>
       </c>
       <c r="Z541" t="s">
         <v>543</v>
       </c>
       <c r="AA541" s="2">
-        <v>44123</v>
+        <v>44127</v>
       </c>
       <c r="AB541" t="s">
         <v>568</v>
@@ -41779,7 +41779,7 @@
         <v>44061</v>
       </c>
       <c r="J542" s="2">
-        <v>44127</v>
+        <v>44130</v>
       </c>
       <c r="M542" s="2">
         <v>44172</v>
@@ -41803,10 +41803,10 @@
         <v>502</v>
       </c>
       <c r="T542">
-        <v>254</v>
+        <v>503</v>
       </c>
       <c r="U542">
-        <v>254</v>
+        <v>503</v>
       </c>
       <c r="V542">
         <v>0</v>
@@ -41818,13 +41818,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y542">
-        <v>344101.674</v>
+        <v>681429.693</v>
       </c>
       <c r="Z542" t="s">
         <v>543</v>
       </c>
       <c r="AA542" s="2">
-        <v>44127</v>
+        <v>44130</v>
       </c>
       <c r="AB542" t="s">
         <v>568</v>
@@ -42610,13 +42610,13 @@
     </row>
     <row r="554" spans="5:29">
       <c r="E554" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F554" t="s">
         <v>357</v>
       </c>
       <c r="G554" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H554" t="s">
         <v>421</v>
@@ -42625,7 +42625,7 @@
         <v>44075</v>
       </c>
       <c r="J554" s="2">
-        <v>44137</v>
+        <v>44126</v>
       </c>
       <c r="M554" s="2">
         <v>44168</v>
@@ -42649,10 +42649,10 @@
         <v>502</v>
       </c>
       <c r="T554">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="U554">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="V554">
         <v>0</v>
@@ -42664,13 +42664,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y554">
-        <v>302105.013</v>
+        <v>6773.655</v>
       </c>
       <c r="Z554" t="s">
         <v>543</v>
       </c>
       <c r="AA554" s="2">
-        <v>44137</v>
+        <v>44126</v>
       </c>
       <c r="AB554" t="s">
         <v>568</v>
@@ -42681,13 +42681,13 @@
     </row>
     <row r="555" spans="5:29">
       <c r="E555" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F555" t="s">
         <v>357</v>
       </c>
       <c r="G555" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H555" t="s">
         <v>421</v>
@@ -42696,7 +42696,7 @@
         <v>44075</v>
       </c>
       <c r="J555" s="2">
-        <v>44126</v>
+        <v>44137</v>
       </c>
       <c r="M555" s="2">
         <v>44168</v>
@@ -42720,10 +42720,10 @@
         <v>502</v>
       </c>
       <c r="T555">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="U555">
-        <v>5</v>
+        <v>223</v>
       </c>
       <c r="V555">
         <v>0</v>
@@ -42735,13 +42735,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y555">
-        <v>6773.655</v>
+        <v>302105.013</v>
       </c>
       <c r="Z555" t="s">
         <v>543</v>
       </c>
       <c r="AA555" s="2">
-        <v>44126</v>
+        <v>44137</v>
       </c>
       <c r="AB555" t="s">
         <v>568</v>
@@ -43598,7 +43598,7 @@
         <v>368</v>
       </c>
       <c r="G568" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H568" t="s">
         <v>421</v>
@@ -43607,7 +43607,7 @@
         <v>44085</v>
       </c>
       <c r="J568" s="2">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="M568" s="2">
         <v>44090</v>
@@ -43631,10 +43631,10 @@
         <v>502</v>
       </c>
       <c r="T568">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="U568">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="V568">
         <v>0</v>
@@ -43646,13 +43646,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y568">
-        <v>23074.128</v>
+        <v>20976.48</v>
       </c>
       <c r="Z568" t="s">
         <v>561</v>
       </c>
       <c r="AA568" s="2">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="AB568" t="s">
         <v>568</v>
@@ -43669,7 +43669,7 @@
         <v>368</v>
       </c>
       <c r="G569" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H569" t="s">
         <v>421</v>
@@ -43678,7 +43678,7 @@
         <v>44085</v>
       </c>
       <c r="J569" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="M569" s="2">
         <v>44090</v>
@@ -43702,10 +43702,10 @@
         <v>502</v>
       </c>
       <c r="T569">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="U569">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="V569">
         <v>0</v>
@@ -43717,13 +43717,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y569">
-        <v>20976.48</v>
+        <v>23074.128</v>
       </c>
       <c r="Z569" t="s">
         <v>561</v>
       </c>
       <c r="AA569" s="2">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="AB569" t="s">
         <v>568</v>
@@ -43947,13 +43947,13 @@
     </row>
     <row r="573" spans="5:29">
       <c r="E573" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F573" t="s">
         <v>370</v>
       </c>
       <c r="G573" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H573" t="s">
         <v>421</v>
@@ -43962,7 +43962,7 @@
         <v>44085</v>
       </c>
       <c r="J573" s="2">
-        <v>44138</v>
+        <v>44127</v>
       </c>
       <c r="M573" s="2">
         <v>44173</v>
@@ -43986,10 +43986,10 @@
         <v>502</v>
       </c>
       <c r="T573">
-        <v>5</v>
+        <v>389</v>
       </c>
       <c r="U573">
-        <v>5</v>
+        <v>389</v>
       </c>
       <c r="V573">
         <v>0</v>
@@ -44001,13 +44001,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y573">
-        <v>6773.655</v>
+        <v>526990.3590000001</v>
       </c>
       <c r="Z573" t="s">
         <v>543</v>
       </c>
       <c r="AA573" s="2">
-        <v>44138</v>
+        <v>44127</v>
       </c>
       <c r="AB573" t="s">
         <v>568</v>
@@ -44018,13 +44018,13 @@
     </row>
     <row r="574" spans="5:29">
       <c r="E574" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F574" t="s">
         <v>370</v>
       </c>
       <c r="G574" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="H574" t="s">
         <v>421</v>
@@ -44033,7 +44033,7 @@
         <v>44085</v>
       </c>
       <c r="J574" s="2">
-        <v>44172</v>
+        <v>44138</v>
       </c>
       <c r="M574" s="2">
         <v>44173</v>
@@ -44057,10 +44057,10 @@
         <v>502</v>
       </c>
       <c r="T574">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="U574">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="V574">
         <v>0</v>
@@ -44072,13 +44072,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y574">
-        <v>46060.854</v>
+        <v>13547.31</v>
       </c>
       <c r="Z574" t="s">
         <v>543</v>
       </c>
       <c r="AA574" s="2">
-        <v>44172</v>
+        <v>44138</v>
       </c>
       <c r="AB574" t="s">
         <v>568</v>
@@ -44089,13 +44089,13 @@
     </row>
     <row r="575" spans="5:29">
       <c r="E575" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F575" t="s">
         <v>370</v>
       </c>
       <c r="G575" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H575" t="s">
         <v>421</v>
@@ -44104,7 +44104,7 @@
         <v>44085</v>
       </c>
       <c r="J575" s="2">
-        <v>44172</v>
+        <v>44140</v>
       </c>
       <c r="M575" s="2">
         <v>44173</v>
@@ -44128,10 +44128,10 @@
         <v>502</v>
       </c>
       <c r="T575">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="U575">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="V575">
         <v>0</v>
@@ -44143,13 +44143,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y575">
-        <v>8128.386</v>
+        <v>445706.499</v>
       </c>
       <c r="Z575" t="s">
         <v>543</v>
       </c>
       <c r="AA575" s="2">
-        <v>44172</v>
+        <v>44140</v>
       </c>
       <c r="AB575" t="s">
         <v>568</v>
@@ -44160,13 +44160,13 @@
     </row>
     <row r="576" spans="5:29">
       <c r="E576" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F576" t="s">
         <v>370</v>
       </c>
       <c r="G576" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H576" t="s">
         <v>421</v>
@@ -44175,7 +44175,7 @@
         <v>44085</v>
       </c>
       <c r="J576" s="2">
-        <v>44172</v>
+        <v>44144</v>
       </c>
       <c r="M576" s="2">
         <v>44173</v>
@@ -44199,10 +44199,10 @@
         <v>502</v>
       </c>
       <c r="T576">
-        <v>113</v>
+        <v>817</v>
       </c>
       <c r="U576">
-        <v>113</v>
+        <v>817</v>
       </c>
       <c r="V576">
         <v>0</v>
@@ -44214,13 +44214,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y576">
-        <v>153084.603</v>
+        <v>1106815.227</v>
       </c>
       <c r="Z576" t="s">
         <v>543</v>
       </c>
       <c r="AA576" s="2">
-        <v>44172</v>
+        <v>44144</v>
       </c>
       <c r="AB576" t="s">
         <v>568</v>
@@ -44231,13 +44231,13 @@
     </row>
     <row r="577" spans="5:29">
       <c r="E577" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F577" t="s">
         <v>370</v>
       </c>
       <c r="G577" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H577" t="s">
         <v>421</v>
@@ -44246,7 +44246,7 @@
         <v>44085</v>
       </c>
       <c r="J577" s="2">
-        <v>44127</v>
+        <v>44137</v>
       </c>
       <c r="M577" s="2">
         <v>44173</v>
@@ -44270,10 +44270,10 @@
         <v>502</v>
       </c>
       <c r="T577">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="U577">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="V577">
         <v>0</v>
@@ -44285,13 +44285,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y577">
-        <v>526990.3590000001</v>
+        <v>418611.879</v>
       </c>
       <c r="Z577" t="s">
         <v>543</v>
       </c>
       <c r="AA577" s="2">
-        <v>44127</v>
+        <v>44137</v>
       </c>
       <c r="AB577" t="s">
         <v>568</v>
@@ -44308,7 +44308,7 @@
         <v>370</v>
       </c>
       <c r="G578" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H578" t="s">
         <v>421</v>
@@ -44317,7 +44317,7 @@
         <v>44085</v>
       </c>
       <c r="J578" s="2">
-        <v>44138</v>
+        <v>44140</v>
       </c>
       <c r="M578" s="2">
         <v>44173</v>
@@ -44341,10 +44341,10 @@
         <v>502</v>
       </c>
       <c r="T578">
-        <v>10</v>
+        <v>656</v>
       </c>
       <c r="U578">
-        <v>10</v>
+        <v>656</v>
       </c>
       <c r="V578">
         <v>0</v>
@@ -44356,13 +44356,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y578">
-        <v>13547.31</v>
+        <v>888703.536</v>
       </c>
       <c r="Z578" t="s">
         <v>543</v>
       </c>
       <c r="AA578" s="2">
-        <v>44138</v>
+        <v>44140</v>
       </c>
       <c r="AB578" t="s">
         <v>568</v>
@@ -44379,7 +44379,7 @@
         <v>370</v>
       </c>
       <c r="G579" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H579" t="s">
         <v>421</v>
@@ -44388,7 +44388,7 @@
         <v>44085</v>
       </c>
       <c r="J579" s="2">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="M579" s="2">
         <v>44173</v>
@@ -44412,10 +44412,10 @@
         <v>502</v>
       </c>
       <c r="T579">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="U579">
-        <v>329</v>
+        <v>5</v>
       </c>
       <c r="V579">
         <v>0</v>
@@ -44427,13 +44427,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y579">
-        <v>445706.499</v>
+        <v>6773.655</v>
       </c>
       <c r="Z579" t="s">
         <v>543</v>
       </c>
       <c r="AA579" s="2">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="AB579" t="s">
         <v>568</v>
@@ -44444,13 +44444,13 @@
     </row>
     <row r="580" spans="5:29">
       <c r="E580" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F580" t="s">
         <v>370</v>
       </c>
       <c r="G580" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H580" t="s">
         <v>421</v>
@@ -44459,7 +44459,7 @@
         <v>44085</v>
       </c>
       <c r="J580" s="2">
-        <v>44144</v>
+        <v>44172</v>
       </c>
       <c r="M580" s="2">
         <v>44173</v>
@@ -44483,10 +44483,10 @@
         <v>502</v>
       </c>
       <c r="T580">
-        <v>817</v>
+        <v>34</v>
       </c>
       <c r="U580">
-        <v>817</v>
+        <v>34</v>
       </c>
       <c r="V580">
         <v>0</v>
@@ -44498,13 +44498,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y580">
-        <v>1106815.227</v>
+        <v>46060.854</v>
       </c>
       <c r="Z580" t="s">
         <v>543</v>
       </c>
       <c r="AA580" s="2">
-        <v>44144</v>
+        <v>44172</v>
       </c>
       <c r="AB580" t="s">
         <v>568</v>
@@ -44515,13 +44515,13 @@
     </row>
     <row r="581" spans="5:29">
       <c r="E581" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F581" t="s">
         <v>370</v>
       </c>
       <c r="G581" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H581" t="s">
         <v>421</v>
@@ -44530,7 +44530,7 @@
         <v>44085</v>
       </c>
       <c r="J581" s="2">
-        <v>44137</v>
+        <v>44172</v>
       </c>
       <c r="M581" s="2">
         <v>44173</v>
@@ -44554,10 +44554,10 @@
         <v>502</v>
       </c>
       <c r="T581">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="U581">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="V581">
         <v>0</v>
@@ -44569,13 +44569,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y581">
-        <v>418611.879</v>
+        <v>8128.386</v>
       </c>
       <c r="Z581" t="s">
         <v>543</v>
       </c>
       <c r="AA581" s="2">
-        <v>44137</v>
+        <v>44172</v>
       </c>
       <c r="AB581" t="s">
         <v>568</v>
@@ -44586,13 +44586,13 @@
     </row>
     <row r="582" spans="5:29">
       <c r="E582" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F582" t="s">
         <v>370</v>
       </c>
       <c r="G582" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="H582" t="s">
         <v>421</v>
@@ -44601,7 +44601,7 @@
         <v>44085</v>
       </c>
       <c r="J582" s="2">
-        <v>44140</v>
+        <v>44172</v>
       </c>
       <c r="M582" s="2">
         <v>44173</v>
@@ -44625,10 +44625,10 @@
         <v>502</v>
       </c>
       <c r="T582">
-        <v>656</v>
+        <v>113</v>
       </c>
       <c r="U582">
-        <v>656</v>
+        <v>113</v>
       </c>
       <c r="V582">
         <v>0</v>
@@ -44640,13 +44640,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y582">
-        <v>888703.536</v>
+        <v>153084.603</v>
       </c>
       <c r="Z582" t="s">
         <v>543</v>
       </c>
       <c r="AA582" s="2">
-        <v>44140</v>
+        <v>44172</v>
       </c>
       <c r="AB582" t="s">
         <v>568</v>
@@ -44728,13 +44728,13 @@
     </row>
     <row r="584" spans="5:29">
       <c r="E584" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F584" t="s">
         <v>371</v>
       </c>
       <c r="G584" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H584" t="s">
         <v>421</v>
@@ -44743,7 +44743,7 @@
         <v>44089</v>
       </c>
       <c r="J584" s="2">
-        <v>44169</v>
+        <v>44144</v>
       </c>
       <c r="M584" s="2">
         <v>44172</v>
@@ -44767,10 +44767,10 @@
         <v>502</v>
       </c>
       <c r="T584">
-        <v>53</v>
+        <v>505</v>
       </c>
       <c r="U584">
-        <v>53</v>
+        <v>505</v>
       </c>
       <c r="V584">
         <v>0</v>
@@ -44782,13 +44782,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y584">
-        <v>71800.743</v>
+        <v>684139.155</v>
       </c>
       <c r="Z584" t="s">
         <v>543</v>
       </c>
       <c r="AA584" s="2">
-        <v>44169</v>
+        <v>44144</v>
       </c>
       <c r="AB584" t="s">
         <v>568</v>
@@ -44799,13 +44799,13 @@
     </row>
     <row r="585" spans="5:29">
       <c r="E585" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F585" t="s">
         <v>371</v>
       </c>
       <c r="G585" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H585" t="s">
         <v>421</v>
@@ -44814,7 +44814,7 @@
         <v>44089</v>
       </c>
       <c r="J585" s="2">
-        <v>44158</v>
+        <v>44169</v>
       </c>
       <c r="M585" s="2">
         <v>44172</v>
@@ -44838,10 +44838,10 @@
         <v>502</v>
       </c>
       <c r="T585">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="U585">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="V585">
         <v>0</v>
@@ -44853,13 +44853,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y585">
-        <v>86702.784</v>
+        <v>71800.743</v>
       </c>
       <c r="Z585" t="s">
         <v>543</v>
       </c>
       <c r="AA585" s="2">
-        <v>44158</v>
+        <v>44169</v>
       </c>
       <c r="AB585" t="s">
         <v>568</v>
@@ -44870,13 +44870,13 @@
     </row>
     <row r="586" spans="5:29">
       <c r="E586" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F586" t="s">
         <v>371</v>
       </c>
       <c r="G586" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H586" t="s">
         <v>421</v>
@@ -44885,7 +44885,7 @@
         <v>44089</v>
       </c>
       <c r="J586" s="2">
-        <v>44133</v>
+        <v>44158</v>
       </c>
       <c r="M586" s="2">
         <v>44172</v>
@@ -44909,10 +44909,10 @@
         <v>502</v>
       </c>
       <c r="T586">
-        <v>821</v>
+        <v>64</v>
       </c>
       <c r="U586">
-        <v>821</v>
+        <v>64</v>
       </c>
       <c r="V586">
         <v>0</v>
@@ -44924,13 +44924,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y586">
-        <v>1112234.151</v>
+        <v>86702.784</v>
       </c>
       <c r="Z586" t="s">
         <v>543</v>
       </c>
       <c r="AA586" s="2">
-        <v>44133</v>
+        <v>44158</v>
       </c>
       <c r="AB586" t="s">
         <v>568</v>
@@ -44941,13 +44941,13 @@
     </row>
     <row r="587" spans="5:29">
       <c r="E587" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F587" t="s">
         <v>371</v>
       </c>
       <c r="G587" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H587" t="s">
         <v>421</v>
@@ -44956,7 +44956,7 @@
         <v>44089</v>
       </c>
       <c r="J587" s="2">
-        <v>44137</v>
+        <v>44133</v>
       </c>
       <c r="M587" s="2">
         <v>44172</v>
@@ -44980,10 +44980,10 @@
         <v>502</v>
       </c>
       <c r="T587">
-        <v>109</v>
+        <v>821</v>
       </c>
       <c r="U587">
-        <v>109</v>
+        <v>821</v>
       </c>
       <c r="V587">
         <v>0</v>
@@ -44995,13 +44995,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y587">
-        <v>147665.679</v>
+        <v>1112234.151</v>
       </c>
       <c r="Z587" t="s">
         <v>543</v>
       </c>
       <c r="AA587" s="2">
-        <v>44137</v>
+        <v>44133</v>
       </c>
       <c r="AB587" t="s">
         <v>568</v>
@@ -45018,7 +45018,7 @@
         <v>371</v>
       </c>
       <c r="G588" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H588" t="s">
         <v>421</v>
@@ -45027,7 +45027,7 @@
         <v>44089</v>
       </c>
       <c r="J588" s="2">
-        <v>44144</v>
+        <v>44137</v>
       </c>
       <c r="M588" s="2">
         <v>44172</v>
@@ -45051,10 +45051,10 @@
         <v>502</v>
       </c>
       <c r="T588">
-        <v>505</v>
+        <v>109</v>
       </c>
       <c r="U588">
-        <v>505</v>
+        <v>109</v>
       </c>
       <c r="V588">
         <v>0</v>
@@ -45066,13 +45066,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y588">
-        <v>684139.155</v>
+        <v>147665.679</v>
       </c>
       <c r="Z588" t="s">
         <v>543</v>
       </c>
       <c r="AA588" s="2">
-        <v>44144</v>
+        <v>44137</v>
       </c>
       <c r="AB588" t="s">
         <v>568</v>
@@ -46009,7 +46009,7 @@
         <v>415</v>
       </c>
       <c r="H602" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I602" s="2">
         <v>44111</v>
@@ -46071,22 +46071,22 @@
     </row>
     <row r="603" spans="5:29">
       <c r="E603" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F603" t="s">
         <v>380</v>
       </c>
       <c r="G603" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="H603" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I603" s="2">
         <v>44111</v>
       </c>
       <c r="J603" s="2">
-        <v>44172</v>
+        <v>44113</v>
       </c>
       <c r="M603" s="2">
         <v>44172</v>
@@ -46110,10 +46110,10 @@
         <v>502</v>
       </c>
       <c r="T603">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="U603">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="V603">
         <v>0</v>
@@ -46125,13 +46125,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y603">
-        <v>102959.556</v>
+        <v>245206.311</v>
       </c>
       <c r="Z603" t="s">
         <v>552</v>
       </c>
       <c r="AA603" s="2">
-        <v>44172</v>
+        <v>44113</v>
       </c>
       <c r="AB603" t="s">
         <v>568</v>
@@ -46142,22 +46142,22 @@
     </row>
     <row r="604" spans="5:29">
       <c r="E604" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F604" t="s">
         <v>380</v>
       </c>
       <c r="G604" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H604" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I604" s="2">
         <v>44111</v>
       </c>
       <c r="J604" s="2">
-        <v>44169</v>
+        <v>44113</v>
       </c>
       <c r="M604" s="2">
         <v>44172</v>
@@ -46181,10 +46181,10 @@
         <v>502</v>
       </c>
       <c r="T604">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="U604">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="V604">
         <v>0</v>
@@ -46196,13 +46196,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y604">
-        <v>227594.808</v>
+        <v>241142.118</v>
       </c>
       <c r="Z604" t="s">
         <v>552</v>
       </c>
       <c r="AA604" s="2">
-        <v>44169</v>
+        <v>44113</v>
       </c>
       <c r="AB604" t="s">
         <v>568</v>
@@ -46219,10 +46219,10 @@
         <v>380</v>
       </c>
       <c r="G605" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H605" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I605" s="2">
         <v>44111</v>
@@ -46252,10 +46252,10 @@
         <v>502</v>
       </c>
       <c r="T605">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="U605">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="V605">
         <v>0</v>
@@ -46267,7 +46267,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y605">
-        <v>245206.311</v>
+        <v>13547.31</v>
       </c>
       <c r="Z605" t="s">
         <v>552</v>
@@ -46290,10 +46290,10 @@
         <v>380</v>
       </c>
       <c r="G606" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H606" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I606" s="2">
         <v>44111</v>
@@ -46323,10 +46323,10 @@
         <v>502</v>
       </c>
       <c r="T606">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="U606">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="V606">
         <v>0</v>
@@ -46338,7 +46338,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y606">
-        <v>241142.118</v>
+        <v>464672.733</v>
       </c>
       <c r="Z606" t="s">
         <v>552</v>
@@ -46361,10 +46361,10 @@
         <v>380</v>
       </c>
       <c r="G607" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H607" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I607" s="2">
         <v>44111</v>
@@ -46394,10 +46394,10 @@
         <v>502</v>
       </c>
       <c r="T607">
-        <v>10</v>
+        <v>549</v>
       </c>
       <c r="U607">
-        <v>10</v>
+        <v>549</v>
       </c>
       <c r="V607">
         <v>0</v>
@@ -46409,7 +46409,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y607">
-        <v>13547.31</v>
+        <v>743747.319</v>
       </c>
       <c r="Z607" t="s">
         <v>552</v>
@@ -46432,10 +46432,10 @@
         <v>380</v>
       </c>
       <c r="G608" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H608" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I608" s="2">
         <v>44111</v>
@@ -46465,10 +46465,10 @@
         <v>502</v>
       </c>
       <c r="T608">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="U608">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="V608">
         <v>0</v>
@@ -46480,7 +46480,7 @@
         <v>4.3701</v>
       </c>
       <c r="Y608">
-        <v>464672.733</v>
+        <v>13547.31</v>
       </c>
       <c r="Z608" t="s">
         <v>552</v>
@@ -46503,16 +46503,16 @@
         <v>380</v>
       </c>
       <c r="G609" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H609" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I609" s="2">
         <v>44111</v>
       </c>
       <c r="J609" s="2">
-        <v>44113</v>
+        <v>44133</v>
       </c>
       <c r="M609" s="2">
         <v>44172</v>
@@ -46536,10 +46536,10 @@
         <v>502</v>
       </c>
       <c r="T609">
-        <v>549</v>
+        <v>72</v>
       </c>
       <c r="U609">
-        <v>549</v>
+        <v>72</v>
       </c>
       <c r="V609">
         <v>0</v>
@@ -46551,13 +46551,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y609">
-        <v>743747.319</v>
+        <v>97540.632</v>
       </c>
       <c r="Z609" t="s">
         <v>552</v>
       </c>
       <c r="AA609" s="2">
-        <v>44113</v>
+        <v>44133</v>
       </c>
       <c r="AB609" t="s">
         <v>568</v>
@@ -46568,22 +46568,22 @@
     </row>
     <row r="610" spans="5:29">
       <c r="E610" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F610" t="s">
         <v>380</v>
       </c>
       <c r="G610" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H610" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I610" s="2">
         <v>44111</v>
       </c>
       <c r="J610" s="2">
-        <v>44113</v>
+        <v>44161</v>
       </c>
       <c r="M610" s="2">
         <v>44172</v>
@@ -46607,10 +46607,10 @@
         <v>502</v>
       </c>
       <c r="T610">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="U610">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="V610">
         <v>0</v>
@@ -46622,13 +46622,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y610">
-        <v>13547.31</v>
+        <v>162567.72</v>
       </c>
       <c r="Z610" t="s">
         <v>552</v>
       </c>
       <c r="AA610" s="2">
-        <v>44113</v>
+        <v>44161</v>
       </c>
       <c r="AB610" t="s">
         <v>568</v>
@@ -46639,22 +46639,22 @@
     </row>
     <row r="611" spans="5:29">
       <c r="E611" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F611" t="s">
         <v>380</v>
       </c>
       <c r="G611" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H611" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I611" s="2">
         <v>44111</v>
       </c>
       <c r="J611" s="2">
-        <v>44133</v>
+        <v>44172</v>
       </c>
       <c r="M611" s="2">
         <v>44172</v>
@@ -46678,10 +46678,10 @@
         <v>502</v>
       </c>
       <c r="T611">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="U611">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="V611">
         <v>0</v>
@@ -46693,13 +46693,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y611">
-        <v>97540.632</v>
+        <v>102959.556</v>
       </c>
       <c r="Z611" t="s">
         <v>552</v>
       </c>
       <c r="AA611" s="2">
-        <v>44133</v>
+        <v>44172</v>
       </c>
       <c r="AB611" t="s">
         <v>568</v>
@@ -46710,22 +46710,22 @@
     </row>
     <row r="612" spans="5:29">
       <c r="E612" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F612" t="s">
         <v>380</v>
       </c>
       <c r="G612" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H612" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I612" s="2">
         <v>44111</v>
       </c>
       <c r="J612" s="2">
-        <v>44161</v>
+        <v>44169</v>
       </c>
       <c r="M612" s="2">
         <v>44172</v>
@@ -46749,10 +46749,10 @@
         <v>502</v>
       </c>
       <c r="T612">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="U612">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="V612">
         <v>0</v>
@@ -46764,13 +46764,13 @@
         <v>4.3701</v>
       </c>
       <c r="Y612">
-        <v>162567.72</v>
+        <v>227594.808</v>
       </c>
       <c r="Z612" t="s">
         <v>552</v>
       </c>
       <c r="AA612" s="2">
-        <v>44161</v>
+        <v>44169</v>
       </c>
       <c r="AB612" t="s">
         <v>568</v>
@@ -46790,7 +46790,7 @@
         <v>408</v>
       </c>
       <c r="H613" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I613" s="2">
         <v>44114</v>
@@ -46861,7 +46861,7 @@
         <v>408</v>
       </c>
       <c r="H614" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I614" s="2">
         <v>44114</v>
@@ -46929,7 +46929,7 @@
         <v>411</v>
       </c>
       <c r="H615" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I615" s="2">
         <v>44114</v>
@@ -46997,7 +46997,7 @@
         <v>408</v>
       </c>
       <c r="H616" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I616" s="2">
         <v>44114</v>
@@ -47065,7 +47065,7 @@
         <v>408</v>
       </c>
       <c r="H617" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I617" s="2">
         <v>44118</v>
@@ -47136,7 +47136,7 @@
         <v>408</v>
       </c>
       <c r="H618" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I618" s="2">
         <v>44126</v>
@@ -47204,7 +47204,7 @@
         <v>411</v>
       </c>
       <c r="H619" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I619" s="2">
         <v>44126</v>
@@ -47275,7 +47275,7 @@
         <v>408</v>
       </c>
       <c r="H620" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I620" s="2">
         <v>44126</v>
@@ -47343,7 +47343,7 @@
         <v>411</v>
       </c>
       <c r="H621" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I621" s="2">
         <v>44126</v>
@@ -47411,7 +47411,7 @@
         <v>412</v>
       </c>
       <c r="H622" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I622" s="2">
         <v>44126</v>
@@ -47479,7 +47479,7 @@
         <v>407</v>
       </c>
       <c r="H623" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I623" s="2">
         <v>44126</v>
@@ -47547,7 +47547,7 @@
         <v>408</v>
       </c>
       <c r="H624" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I624" s="2">
         <v>44131</v>
@@ -47615,7 +47615,7 @@
         <v>408</v>
       </c>
       <c r="H625" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I625" s="2">
         <v>44131</v>
@@ -47683,7 +47683,7 @@
         <v>408</v>
       </c>
       <c r="H626" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I626" s="2">
         <v>44137</v>
@@ -47751,7 +47751,7 @@
         <v>408</v>
       </c>
       <c r="H627" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I627" s="2">
         <v>44139</v>
@@ -47819,7 +47819,7 @@
         <v>408</v>
       </c>
       <c r="H628" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I628" s="2">
         <v>44141</v>
@@ -47890,7 +47890,7 @@
         <v>408</v>
       </c>
       <c r="H629" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I629" s="2">
         <v>44146</v>
@@ -47958,7 +47958,7 @@
         <v>411</v>
       </c>
       <c r="H630" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I630" s="2">
         <v>44146</v>
@@ -48026,7 +48026,7 @@
         <v>412</v>
       </c>
       <c r="H631" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I631" s="2">
         <v>44146</v>
@@ -48047,7 +48047,7 @@
         <v>435</v>
       </c>
       <c r="R631" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S631" t="s">
         <v>502</v>
@@ -48071,7 +48071,7 @@
         <v>87314.598</v>
       </c>
       <c r="Z631" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA631" s="2">
         <v>44172</v>
@@ -48094,7 +48094,7 @@
         <v>408</v>
       </c>
       <c r="H632" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I632" s="2">
         <v>44148</v>
@@ -48162,7 +48162,7 @@
         <v>408</v>
       </c>
       <c r="H633" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I633" s="2">
         <v>44148</v>
@@ -48230,7 +48230,7 @@
         <v>408</v>
       </c>
       <c r="H634" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I634" s="2">
         <v>44153</v>
@@ -48298,7 +48298,7 @@
         <v>408</v>
       </c>
       <c r="H635" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="I635" s="2">
         <v>44159</v>
@@ -48366,7 +48366,7 @@
         <v>408</v>
       </c>
       <c r="H636" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I636" s="2">
         <v>44166</v>
@@ -48434,7 +48434,7 @@
         <v>411</v>
       </c>
       <c r="H637" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I637" s="2">
         <v>44166</v>
@@ -48502,7 +48502,7 @@
         <v>408</v>
       </c>
       <c r="H638" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I638" s="2">
         <v>44166</v>
@@ -48573,7 +48573,7 @@
         <v>411</v>
       </c>
       <c r="H639" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I639" s="2">
         <v>44166</v>
@@ -48644,7 +48644,7 @@
         <v>408</v>
       </c>
       <c r="H640" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I640" s="2">
         <v>44173</v>
@@ -48712,7 +48712,7 @@
         <v>408</v>
       </c>
       <c r="H641" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I641" s="2">
         <v>44173</v>
@@ -48780,7 +48780,7 @@
         <v>411</v>
       </c>
       <c r="H642" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I642" s="2">
         <v>44173</v>
@@ -48848,7 +48848,7 @@
         <v>408</v>
       </c>
       <c r="H643" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I643" s="2">
         <v>44179</v>
@@ -48916,7 +48916,7 @@
         <v>408</v>
       </c>
       <c r="H644" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I644" s="2">
         <v>44179</v>
@@ -48984,7 +48984,7 @@
         <v>408</v>
       </c>
       <c r="H645" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I645" s="2">
         <v>44180</v>
@@ -49052,7 +49052,7 @@
         <v>408</v>
       </c>
       <c r="H646" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I646" s="2">
         <v>44186</v>
@@ -49120,7 +49120,7 @@
         <v>408</v>
       </c>
       <c r="H647" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I647" s="2">
         <v>44186</v>
@@ -49188,7 +49188,7 @@
         <v>411</v>
       </c>
       <c r="H648" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I648" s="2">
         <v>44186</v>
